--- a/Aide/wwwroot/AdvisingMaterial/Majors/Software Engineer/StudyPlan/2021-2022.xlsx
+++ b/Aide/wwwroot/AdvisingMaterial/Majors/Software Engineer/StudyPlan/2021-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_aud\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ib_ra\Documents\GitHub\Aide\Aide\wwwroot\AdvisingMaterial\Majors\Software Engineer\StudyPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{665D11F9-165C-4C53-BCB2-D804EDED9F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3521E98B-D415-443E-922F-38A7BA7E4792}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FACD22-EC6F-4A2B-B816-868FFFDC6848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="791" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="791" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE-Ar" sheetId="21" r:id="rId1"/>
@@ -2457,7 +2457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3311,7 +3311,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -3690,32 +3690,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3723,44 +3699,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
@@ -3780,11 +3723,92 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -3794,93 +3818,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3942,6 +3879,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -3969,18 +3915,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3996,65 +3930,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4083,32 +4041,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4127,6 +4100,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4774,16 +4777,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>157313</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>217926</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7934</xdr:rowOff>
+      <xdr:rowOff>25252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>731837</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>367934</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>792450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4252</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4812,7 +4815,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2963210038" y="7934"/>
+          <a:off x="979926" y="25252"/>
           <a:ext cx="574524" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20513,7 +20516,7 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
@@ -20531,155 +20534,155 @@
     <col min="15" max="16384" width="2.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="21" customHeight="1">
-      <c r="B1" s="144" t="s">
+    <row r="1" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-    </row>
-    <row r="2" spans="2:18" ht="21" customHeight="1">
-      <c r="B2" s="144" t="s">
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+    </row>
+    <row r="2" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-    </row>
-    <row r="3" spans="2:18" ht="21" customHeight="1">
-      <c r="B3" s="144" t="s">
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+    </row>
+    <row r="3" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-    </row>
-    <row r="4" spans="2:18" ht="21" customHeight="1">
-      <c r="B4" s="144" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-    </row>
-    <row r="5" spans="2:18" ht="21" customHeight="1" thickBot="1">
-      <c r="B5" s="144" t="s">
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+    </row>
+    <row r="4" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+    </row>
+    <row r="5" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-    </row>
-    <row r="6" spans="2:18" ht="21" customHeight="1">
-      <c r="B6" s="142" t="s">
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+    </row>
+    <row r="6" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143" t="s">
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="145"/>
-    </row>
-    <row r="7" spans="2:18" ht="21" customHeight="1">
-      <c r="B7" s="146" t="s">
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="148"/>
+    </row>
+    <row r="7" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147" t="s">
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="150"/>
-    </row>
-    <row r="8" spans="2:18" ht="21" customHeight="1">
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="143"/>
+    </row>
+    <row r="8" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="97" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="131" t="s">
+      <c r="D8" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
       <c r="G8" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="131" t="s">
+      <c r="H8" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="131" t="s">
+      <c r="I8" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="131" t="s">
+      <c r="J8" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131" t="s">
+      <c r="K8" s="132"/>
+      <c r="L8" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="149" t="s">
+      <c r="M8" s="142" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="21" customHeight="1">
+    <row r="9" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="105">
         <v>1401146</v>
       </c>
@@ -20695,21 +20698,21 @@
       <c r="F9" s="98">
         <v>1</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="131"/>
-      <c r="M9" s="149"/>
-    </row>
-    <row r="10" spans="2:18" ht="21" customHeight="1">
+      <c r="L9" s="132"/>
+      <c r="M9" s="142"/>
+    </row>
+    <row r="10" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105">
         <v>1401147</v>
       </c>
@@ -20725,7 +20728,7 @@
       <c r="F10" s="98">
         <v>1</v>
       </c>
-      <c r="G10" s="136"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="95">
         <v>1301120</v>
       </c>
@@ -20750,7 +20753,7 @@
         <v>1301111</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="21" customHeight="1">
+    <row r="11" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="105">
         <v>1401148</v>
       </c>
@@ -20766,7 +20769,7 @@
       <c r="F11" s="98">
         <v>1</v>
       </c>
-      <c r="G11" s="136"/>
+      <c r="G11" s="144"/>
       <c r="H11" s="95">
         <v>1301203</v>
       </c>
@@ -20791,7 +20794,7 @@
         <v>1301108 + 1301111</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="24" customHeight="1">
+    <row r="12" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10">
         <v>100103</v>
       </c>
@@ -20835,7 +20838,7 @@
       </c>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="2:18" ht="16.5" customHeight="1">
+    <row r="13" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10">
         <v>1401116</v>
       </c>
@@ -20880,7 +20883,7 @@
       </c>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="2:18" ht="15.75" customHeight="1">
+    <row r="14" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="105">
         <v>1401123</v>
       </c>
@@ -20924,7 +20927,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="2:18" ht="25.5" customHeight="1">
+    <row r="15" spans="2:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="105">
         <v>1401124</v>
       </c>
@@ -20968,7 +20971,7 @@
       </c>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="2:18" ht="17.25" customHeight="1">
+    <row r="16" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="106">
         <v>1401150</v>
       </c>
@@ -21013,11 +21016,11 @@
       </c>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="2:18" ht="21" customHeight="1">
-      <c r="B17" s="130" t="s">
+    <row r="17" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="131"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="96">
         <f>SUM(D9:F13)</f>
         <v>18</v>
@@ -21053,15 +21056,15 @@
         <v>1301203</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="21" customHeight="1">
-      <c r="B18" s="146" t="s">
+    <row r="18" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="95">
         <v>1301326</v>
       </c>
@@ -21085,7 +21088,7 @@
         <v>1301203</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="17.25" customHeight="1">
+    <row r="19" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="105">
         <v>501114</v>
       </c>
@@ -21127,7 +21130,7 @@
         <v>1301326</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="13.5" customHeight="1">
+    <row r="20" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="105">
         <v>1401126</v>
       </c>
@@ -21169,7 +21172,7 @@
         <v>1301108</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="21" customHeight="1">
+    <row r="21" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="105">
         <v>1401117</v>
       </c>
@@ -21212,7 +21215,7 @@
         <v>1301236 + 1301305</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="21" customHeight="1">
+    <row r="22" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="105">
         <v>1401118</v>
       </c>
@@ -21254,7 +21257,7 @@
         <v>1301305</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="21" customHeight="1">
+    <row r="23" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="105">
         <v>1211110</v>
       </c>
@@ -21298,7 +21301,7 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="2:18" ht="21" customHeight="1">
+    <row r="24" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="105">
         <v>1501163</v>
       </c>
@@ -21342,7 +21345,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="2:18" ht="21" customHeight="1">
+    <row r="25" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="105">
         <v>1401130</v>
       </c>
@@ -21386,7 +21389,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="2:18" ht="21" customHeight="1">
+    <row r="26" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="105">
         <v>1401131</v>
       </c>
@@ -21430,7 +21433,7 @@
       </c>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="2:18" ht="16.5" customHeight="1">
+    <row r="27" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="105">
         <v>1401127</v>
       </c>
@@ -21473,7 +21476,7 @@
       </c>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="2:18" ht="23.25" customHeight="1">
+    <row r="28" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="105">
         <v>1401210</v>
       </c>
@@ -21517,7 +21520,7 @@
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="2:18" ht="21" customHeight="1">
+    <row r="29" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="105">
         <v>1401220</v>
       </c>
@@ -21561,7 +21564,7 @@
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="2:18" ht="18" customHeight="1">
+    <row r="30" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="105">
         <v>1501127</v>
       </c>
@@ -21605,7 +21608,7 @@
       </c>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="2:18" ht="25.5" customHeight="1">
+    <row r="31" spans="2:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="105">
         <v>1501128</v>
       </c>
@@ -21649,7 +21652,7 @@
       </c>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="2:18" ht="21" customHeight="1">
+    <row r="32" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="105">
         <v>1501154</v>
       </c>
@@ -21693,7 +21696,7 @@
       </c>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="2:18" ht="21" customHeight="1">
+    <row r="33" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="105">
         <v>1501164</v>
       </c>
@@ -21734,7 +21737,7 @@
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="2:18" ht="21" customHeight="1">
+    <row r="34" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="105">
         <v>1401221</v>
       </c>
@@ -21777,7 +21780,7 @@
       </c>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="2:18" ht="21" customHeight="1">
+    <row r="35" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="105">
         <v>1401151</v>
       </c>
@@ -21816,15 +21819,15 @@
       </c>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="2:18" ht="24.95" customHeight="1">
-      <c r="B36" s="137" t="s">
+    <row r="36" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="138"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
       <c r="H36" s="108" t="s">
         <v>26</v>
       </c>
@@ -21844,43 +21847,43 @@
       <c r="M36" s="110"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="2:18" ht="19.5" customHeight="1">
-      <c r="B37" s="130" t="s">
+    <row r="37" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="131" t="s">
+      <c r="C37" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="131" t="s">
+      <c r="D37" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131" t="s">
+      <c r="E37" s="132"/>
+      <c r="F37" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="131" t="s">
+      <c r="G37" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="155" t="s">
+      <c r="H37" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="157"/>
-    </row>
-    <row r="38" spans="2:18" ht="12.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="B38" s="130"/>
-      <c r="C38" s="131"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="137"/>
+      <c r="L37" s="137"/>
+      <c r="M37" s="138"/>
+    </row>
+    <row r="38" spans="2:18" ht="12.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="131"/>
+      <c r="C38" s="132"/>
       <c r="D38" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="131"/>
-      <c r="G38" s="131"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
       <c r="H38" s="104"/>
       <c r="I38" s="104"/>
       <c r="J38" s="104"/>
@@ -21888,7 +21891,7 @@
       <c r="L38" s="104"/>
       <c r="M38" s="107"/>
     </row>
-    <row r="39" spans="2:18" ht="21" customHeight="1">
+    <row r="39" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10">
         <v>1301106</v>
       </c>
@@ -21912,16 +21915,16 @@
         <f>VLOOKUP($B39,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H39" s="152" t="s">
+      <c r="H39" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
-      <c r="K39" s="153"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="154"/>
-    </row>
-    <row r="40" spans="2:18" ht="21" customHeight="1">
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="135"/>
+    </row>
+    <row r="40" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10">
         <v>1301108</v>
       </c>
@@ -21945,24 +21948,24 @@
         <f>VLOOKUP($B40,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>1301106</v>
       </c>
-      <c r="H40" s="131" t="s">
+      <c r="H40" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="131" t="s">
+      <c r="I40" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="J40" s="131" t="s">
+      <c r="J40" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131" t="s">
+      <c r="K40" s="132"/>
+      <c r="L40" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="M40" s="149" t="s">
+      <c r="M40" s="142" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:18" ht="21" customHeight="1">
+    <row r="41" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10">
         <v>1301111</v>
       </c>
@@ -21985,18 +21988,18 @@
         <f>VLOOKUP($B41,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H41" s="131"/>
-      <c r="I41" s="131"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
       <c r="J41" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L41" s="131"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:18" ht="21" customHeight="1">
+      <c r="L41" s="132"/>
+      <c r="M41" s="142"/>
+    </row>
+    <row r="42" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="10">
         <v>1301150</v>
       </c>
@@ -22038,7 +22041,7 @@
         <v>1301305</v>
       </c>
     </row>
-    <row r="43" spans="2:18" ht="21" customHeight="1">
+    <row r="43" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10">
         <v>1301266</v>
       </c>
@@ -22080,7 +22083,7 @@
         <v>1302383</v>
       </c>
     </row>
-    <row r="44" spans="2:18" ht="21" customHeight="1">
+    <row r="44" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10">
         <v>1301270</v>
       </c>
@@ -22123,7 +22126,7 @@
         <v>1302281</v>
       </c>
     </row>
-    <row r="45" spans="2:18" ht="21" customHeight="1">
+    <row r="45" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10">
         <v>1501110</v>
       </c>
@@ -22166,7 +22169,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="2:18" ht="21" customHeight="1">
+    <row r="46" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10">
         <v>1501212</v>
       </c>
@@ -22208,14 +22211,14 @@
       <c r="M46" s="18">
         <v>1302384</v>
       </c>
-      <c r="Q46" s="151"/>
-      <c r="R46" s="151"/>
-    </row>
-    <row r="47" spans="2:18" ht="18" customHeight="1">
-      <c r="B47" s="130" t="s">
+      <c r="Q46" s="128"/>
+      <c r="R46" s="128"/>
+    </row>
+    <row r="47" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="131"/>
+      <c r="C47" s="132"/>
       <c r="D47" s="96">
         <f>SUM(D39:D46)</f>
         <v>22</v>
@@ -22248,15 +22251,15 @@
         <v>1302383</v>
       </c>
     </row>
-    <row r="48" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B48" s="128" t="s">
+    <row r="48" spans="2:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="129"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="129"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="150"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="150"/>
       <c r="H48" s="12">
         <v>1302412</v>
       </c>
@@ -22276,13 +22279,13 @@
         <v>1301305</v>
       </c>
     </row>
-    <row r="49" spans="2:18" ht="21" customHeight="1">
-      <c r="B49" s="128"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
+    <row r="49" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="149"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
       <c r="H49" s="12">
         <v>1302461</v>
       </c>
@@ -22303,13 +22306,13 @@
       </c>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="2:18" ht="21" customHeight="1">
-      <c r="B50" s="128"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="129"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="129"/>
-      <c r="G50" s="129"/>
+    <row r="50" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="149"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="150"/>
+      <c r="E50" s="150"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="150"/>
       <c r="H50" s="12">
         <v>1302315</v>
       </c>
@@ -22329,13 +22332,13 @@
         <v>1302384</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B51" s="128"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
+    <row r="51" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="149"/>
+      <c r="C51" s="150"/>
+      <c r="D51" s="150"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="150"/>
       <c r="H51" s="12">
         <v>1302481</v>
       </c>
@@ -22360,15 +22363,15 @@
         <v>1302384</v>
       </c>
     </row>
-    <row r="52" spans="2:18" ht="21" customHeight="1">
-      <c r="B52" s="137" t="s">
+    <row r="52" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="138"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="138"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
       <c r="H52" s="12">
         <v>1302392</v>
       </c>
@@ -22393,15 +22396,15 @@
         <v>Dept. Approval</v>
       </c>
     </row>
-    <row r="53" spans="2:18" ht="21" customHeight="1">
-      <c r="B53" s="139" t="s">
+    <row r="53" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="140"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="140"/>
-      <c r="F53" s="140"/>
-      <c r="G53" s="140"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="156"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
       <c r="H53" s="12">
         <v>1302413</v>
       </c>
@@ -22421,13 +22424,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="2:18" ht="21" customHeight="1">
-      <c r="B54" s="139"/>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
+    <row r="54" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="155"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="156"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
       <c r="H54" s="12">
         <v>1302490</v>
       </c>
@@ -22452,63 +22455,63 @@
         <v>Dept. Approval</v>
       </c>
     </row>
-    <row r="55" spans="2:18" ht="21" customHeight="1">
-      <c r="B55" s="139"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="140"/>
-      <c r="H55" s="136">
+    <row r="55" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="155"/>
+      <c r="C55" s="156"/>
+      <c r="D55" s="156"/>
+      <c r="E55" s="156"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="144">
         <v>1302414</v>
       </c>
-      <c r="I55" s="135" t="s">
+      <c r="I55" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="J55" s="136">
-        <v>3</v>
-      </c>
-      <c r="K55" s="136">
+      <c r="J55" s="144">
+        <v>3</v>
+      </c>
+      <c r="K55" s="144">
         <v>0</v>
       </c>
-      <c r="L55" s="136">
-        <v>3</v>
-      </c>
-      <c r="M55" s="141" t="s">
+      <c r="L55" s="144">
+        <v>3</v>
+      </c>
+      <c r="M55" s="157" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="2:18" ht="12" customHeight="1">
-      <c r="B56" s="139"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="140"/>
-      <c r="F56" s="140"/>
-      <c r="G56" s="140"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="135"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="136"/>
-      <c r="L56" s="136"/>
-      <c r="M56" s="141"/>
-    </row>
-    <row r="57" spans="2:18" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B57" s="132" t="s">
+    <row r="56" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="155"/>
+      <c r="C56" s="156"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="156"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="144"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="144"/>
+      <c r="K56" s="144"/>
+      <c r="L56" s="144"/>
+      <c r="M56" s="157"/>
+    </row>
+    <row r="57" spans="2:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="133"/>
-      <c r="D57" s="133"/>
-      <c r="E57" s="133"/>
-      <c r="F57" s="133"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="133"/>
-      <c r="M57" s="134"/>
-    </row>
-    <row r="58" spans="2:18" ht="21" customHeight="1">
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="152"/>
+      <c r="K57" s="152"/>
+      <c r="L57" s="152"/>
+      <c r="M57" s="153"/>
+    </row>
+    <row r="58" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -22522,7 +22525,7 @@
       <c r="L58" s="6"/>
       <c r="M58" s="16"/>
     </row>
-    <row r="59" spans="2:18" ht="21" customHeight="1">
+    <row r="59" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -22536,7 +22539,7 @@
       <c r="L59" s="6"/>
       <c r="M59" s="16"/>
     </row>
-    <row r="60" spans="2:18" ht="21" customHeight="1">
+    <row r="60" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -22550,18 +22553,18 @@
       <c r="L60" s="6"/>
       <c r="M60" s="16"/>
     </row>
-    <row r="61" spans="2:18" ht="21" customHeight="1">
+    <row r="61" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F61" s="2"/>
       <c r="J61" s="3"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:18" ht="21" customHeight="1">
+    <row r="62" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="2:18" ht="21" customHeight="1">
+    <row r="63" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="2:18" ht="21" customHeight="1">
+    <row r="64" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F64" s="2"/>
     </row>
   </sheetData>
@@ -22569,18 +22572,24 @@
     <sortCondition ref="H37"/>
   </sortState>
   <mergeCells count="43">
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B48:G51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B57:M57"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="D8:F8"/>
@@ -22594,24 +22603,18 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B48:G51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B57:M57"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="H37:M37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -22632,7 +22635,7 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="21.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="19" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="19" customWidth="1"/>
@@ -22651,179 +22654,179 @@
     <col min="15" max="16384" width="2.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B1" s="158" t="s">
+    <row r="1" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="234" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-    </row>
-    <row r="2" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B2" s="158" t="s">
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+    </row>
+    <row r="2" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="234" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-    </row>
-    <row r="3" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B3" s="158" t="s">
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+    </row>
+    <row r="3" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="234" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-    </row>
-    <row r="4" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B4" s="158" t="s">
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+    </row>
+    <row r="4" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="234" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-    </row>
-    <row r="5" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
-      <c r="B5" s="159" t="s">
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
+      <c r="H4" s="234"/>
+      <c r="I4" s="234"/>
+      <c r="J4" s="234"/>
+      <c r="K4" s="234"/>
+      <c r="L4" s="234"/>
+      <c r="M4" s="234"/>
+    </row>
+    <row r="5" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="235" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-    </row>
-    <row r="6" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B6" s="160" t="s">
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="235"/>
+      <c r="K5" s="235"/>
+      <c r="L5" s="235"/>
+      <c r="M5" s="235"/>
+    </row>
+    <row r="6" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="160" t="s">
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="162"/>
-    </row>
-    <row r="7" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B7" s="163" t="s">
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="170"/>
+    </row>
+    <row r="7" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="223" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="163" t="s">
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="164"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="165"/>
-    </row>
-    <row r="8" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B8" s="166" t="s">
+      <c r="I7" s="224"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="224"/>
+      <c r="L7" s="224"/>
+      <c r="M7" s="225"/>
+    </row>
+    <row r="8" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="226" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="170" t="s">
+      <c r="D8" s="230" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="171"/>
-      <c r="F8" s="168" t="s">
+      <c r="E8" s="231"/>
+      <c r="F8" s="228" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="172" t="s">
+      <c r="G8" s="232" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="166" t="s">
+      <c r="H8" s="226" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="168" t="s">
+      <c r="I8" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="170" t="s">
+      <c r="J8" s="230" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="171"/>
-      <c r="L8" s="168" t="s">
+      <c r="K8" s="231"/>
+      <c r="L8" s="228" t="s">
         <v>86</v>
       </c>
-      <c r="M8" s="172" t="s">
+      <c r="M8" s="232" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
-      <c r="B9" s="167"/>
-      <c r="C9" s="169"/>
+    <row r="9" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="227"/>
+      <c r="C9" s="229"/>
       <c r="D9" s="29" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="169"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="169"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="227"/>
+      <c r="I9" s="229"/>
       <c r="J9" s="29" t="s">
         <v>89</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="L9" s="169"/>
-      <c r="M9" s="173"/>
-    </row>
-    <row r="10" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+      <c r="L9" s="229"/>
+      <c r="M9" s="233"/>
+    </row>
+    <row r="10" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="111">
         <v>1401146</v>
       </c>
@@ -22839,7 +22842,7 @@
       <c r="F10" s="111">
         <v>1</v>
       </c>
-      <c r="G10" s="192" t="s">
+      <c r="G10" s="171" t="s">
         <v>92</v>
       </c>
       <c r="H10" s="10">
@@ -22866,7 +22869,7 @@
         <v>1301111</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+    <row r="11" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="111">
         <v>1401147</v>
       </c>
@@ -22882,7 +22885,7 @@
       <c r="F11" s="111">
         <v>1</v>
       </c>
-      <c r="G11" s="192"/>
+      <c r="G11" s="171"/>
       <c r="H11" s="10">
         <v>1301203</v>
       </c>
@@ -22907,7 +22910,7 @@
         <v>1301108 + 1301111</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+    <row r="12" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="111">
         <v>1401148</v>
       </c>
@@ -22923,7 +22926,7 @@
       <c r="F12" s="111">
         <v>1</v>
       </c>
-      <c r="G12" s="192"/>
+      <c r="G12" s="171"/>
       <c r="H12" s="10">
         <v>1301208</v>
       </c>
@@ -22949,7 +22952,7 @@
       </c>
       <c r="R12" s="21"/>
     </row>
-    <row r="13" spans="2:18" ht="31.5" customHeight="1" thickBot="1">
+    <row r="13" spans="2:18" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="114">
         <v>100103</v>
       </c>
@@ -22993,7 +22996,7 @@
       </c>
       <c r="R13" s="21"/>
     </row>
-    <row r="14" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="114">
         <v>1401116</v>
       </c>
@@ -23012,32 +23015,32 @@
       <c r="G14" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="221">
+      <c r="H14" s="162">
         <v>1301236</v>
       </c>
-      <c r="I14" s="223" t="str">
+      <c r="I14" s="164" t="str">
         <f>VLOOKUP($H14,Crses!$A$2:$I$290,3,FALSE)</f>
         <v>Web-Based Programming</v>
       </c>
-      <c r="J14" s="232">
+      <c r="J14" s="158">
         <f>VLOOKUP($H14,Crses!$A$2:$J$290,4,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="K14" s="232">
+      <c r="K14" s="158">
         <f>VLOOKUP($H14,Crses!$A$2:$J$290,5,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="L14" s="232">
+      <c r="L14" s="158">
         <f>VLOOKUP($H14,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="M14" s="234">
+      <c r="M14" s="160">
         <f>VLOOKUP($H14,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>1301108</v>
       </c>
       <c r="R14" s="21"/>
     </row>
-    <row r="15" spans="2:18" ht="16.5" customHeight="1" thickBot="1">
+    <row r="15" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="114">
         <v>1401123</v>
       </c>
@@ -23056,14 +23059,14 @@
       <c r="G15" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="222"/>
-      <c r="I15" s="224"/>
-      <c r="J15" s="233"/>
-      <c r="K15" s="233"/>
-      <c r="L15" s="233"/>
-      <c r="M15" s="235"/>
-    </row>
-    <row r="16" spans="2:18" ht="16.5" customHeight="1" thickBot="1">
+      <c r="H15" s="163"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="161"/>
+    </row>
+    <row r="16" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="114">
         <v>1401124</v>
       </c>
@@ -23082,31 +23085,31 @@
       <c r="G16" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="221">
+      <c r="H16" s="162">
         <v>1301304</v>
       </c>
-      <c r="I16" s="223" t="str">
+      <c r="I16" s="164" t="str">
         <f>VLOOKUP($H16,Crses!$A$2:$I$290,3,FALSE)</f>
         <v>Visual Programming</v>
       </c>
-      <c r="J16" s="232">
+      <c r="J16" s="158">
         <f>VLOOKUP($H16,Crses!$A$2:$J$290,4,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="K16" s="232">
+      <c r="K16" s="158">
         <f>VLOOKUP($H16,Crses!$A$2:$J$290,5,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="L16" s="232">
+      <c r="L16" s="158">
         <f>VLOOKUP($H16,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="M16" s="234">
+      <c r="M16" s="160">
         <f>VLOOKUP($H16,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>1301305</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="16.5" customHeight="1" thickBot="1">
+    <row r="17" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="114">
         <v>1401150</v>
       </c>
@@ -23125,14 +23128,14 @@
       <c r="G17" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="222"/>
-      <c r="I17" s="224"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="233"/>
-      <c r="L17" s="233"/>
-      <c r="M17" s="235"/>
-    </row>
-    <row r="18" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+      <c r="H17" s="163"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="161"/>
+    </row>
+    <row r="18" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="115"/>
       <c r="C18" s="116" t="s">
         <v>100</v>
@@ -23174,15 +23177,15 @@
         <v>1301203</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B19" s="218" t="s">
+    <row r="19" spans="2:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="220"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="202"/>
       <c r="H19" s="10">
         <v>1301310</v>
       </c>
@@ -23207,15 +23210,15 @@
         <v>1301203</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B20" s="225" t="s">
+    <row r="20" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="225"/>
-      <c r="E20" s="225"/>
-      <c r="F20" s="225"/>
-      <c r="G20" s="225"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
       <c r="H20" s="10">
         <v>1301326</v>
       </c>
@@ -23240,7 +23243,7 @@
         <v>1301203</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="24" customHeight="1" thickBot="1">
+    <row r="21" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="118">
         <v>501114</v>
       </c>
@@ -23288,7 +23291,7 @@
         <v>1301326</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+    <row r="22" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="118">
         <v>1401126</v>
       </c>
@@ -23336,7 +23339,7 @@
         <v>1301108</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+    <row r="23" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="118">
         <v>1401117</v>
       </c>
@@ -23385,7 +23388,7 @@
       </c>
       <c r="Q23" s="22"/>
     </row>
-    <row r="24" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+    <row r="24" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="118">
         <v>1401118</v>
       </c>
@@ -23434,7 +23437,7 @@
       </c>
       <c r="Q24" s="22"/>
     </row>
-    <row r="25" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+    <row r="25" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="118">
         <v>1211110</v>
       </c>
@@ -23483,7 +23486,7 @@
       </c>
       <c r="Q25" s="22"/>
     </row>
-    <row r="26" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+    <row r="26" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="118">
         <v>1501163</v>
       </c>
@@ -23527,7 +23530,7 @@
       </c>
       <c r="Q26" s="22"/>
     </row>
-    <row r="27" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+    <row r="27" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="118">
         <v>1401130</v>
       </c>
@@ -23576,7 +23579,7 @@
       </c>
       <c r="Q27" s="22"/>
     </row>
-    <row r="28" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+    <row r="28" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="118">
         <v>1401131</v>
       </c>
@@ -23625,7 +23628,7 @@
       </c>
       <c r="Q28" s="22"/>
     </row>
-    <row r="29" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+    <row r="29" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="118">
         <v>1401127</v>
       </c>
@@ -23669,7 +23672,7 @@
       </c>
       <c r="Q29" s="22"/>
     </row>
-    <row r="30" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+    <row r="30" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="118">
         <v>1401210</v>
       </c>
@@ -23717,7 +23720,7 @@
       </c>
       <c r="R30" s="23"/>
     </row>
-    <row r="31" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+    <row r="31" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="118">
         <v>1401220</v>
       </c>
@@ -23765,7 +23768,7 @@
       </c>
       <c r="Q31" s="22"/>
     </row>
-    <row r="32" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
+    <row r="32" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="118">
         <v>1501127</v>
       </c>
@@ -23814,7 +23817,7 @@
       </c>
       <c r="Q32" s="22"/>
     </row>
-    <row r="33" spans="2:17" ht="21.95" customHeight="1" thickBot="1">
+    <row r="33" spans="2:17" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="118">
         <v>1501128</v>
       </c>
@@ -23863,7 +23866,7 @@
       </c>
       <c r="Q33" s="22"/>
     </row>
-    <row r="34" spans="2:17" ht="21.95" customHeight="1" thickBot="1">
+    <row r="34" spans="2:17" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="118">
         <v>1501154</v>
       </c>
@@ -23912,7 +23915,7 @@
       </c>
       <c r="Q34" s="22"/>
     </row>
-    <row r="35" spans="2:17" ht="21.95" customHeight="1" thickBot="1">
+    <row r="35" spans="2:17" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="118">
         <v>1501164</v>
       </c>
@@ -23954,7 +23957,7 @@
       </c>
       <c r="Q35" s="22"/>
     </row>
-    <row r="36" spans="2:17" ht="21.95" customHeight="1" thickBot="1">
+    <row r="36" spans="2:17" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="118">
         <v>1401151</v>
       </c>
@@ -24003,27 +24006,27 @@
       </c>
       <c r="Q36" s="22"/>
     </row>
-    <row r="37" spans="2:17" ht="21.95" customHeight="1">
-      <c r="B37" s="226">
+    <row r="37" spans="2:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="204">
         <v>1401221</v>
       </c>
-      <c r="C37" s="228" t="str">
+      <c r="C37" s="206" t="str">
         <f>VLOOKUP($B37,[2]Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Foreign Languages</v>
       </c>
-      <c r="D37" s="230">
+      <c r="D37" s="166">
         <f>VLOOKUP($B37,[2]Crses!$A$2:$J$290,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E37" s="230">
+      <c r="E37" s="166">
         <f>VLOOKUP($B37,[2]Crses!$A$2:$J$290,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="230">
+      <c r="F37" s="166">
         <f>VLOOKUP($B37,[2]Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="G37" s="230" t="str">
+      <c r="G37" s="166" t="str">
         <f>VLOOKUP($B37,[2]Crses!$A$2:$J$290,7,FALSE)</f>
         <v>-</v>
       </c>
@@ -24052,17 +24055,17 @@
       </c>
       <c r="Q37" s="22"/>
     </row>
-    <row r="38" spans="2:17" ht="21.95" customHeight="1" thickBot="1">
-      <c r="B38" s="227"/>
-      <c r="C38" s="229"/>
-      <c r="D38" s="231"/>
-      <c r="E38" s="231"/>
-      <c r="F38" s="231"/>
-      <c r="G38" s="231"/>
-      <c r="H38" s="205" t="s">
+    <row r="38" spans="2:17" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="205"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="206"/>
+      <c r="I38" s="185"/>
       <c r="J38" s="121">
         <f>SUM(J10:J37)</f>
         <v>59</v>
@@ -24078,86 +24081,86 @@
       <c r="M38" s="122"/>
       <c r="Q38" s="22"/>
     </row>
-    <row r="39" spans="2:17" ht="21.95" customHeight="1">
-      <c r="B39" s="212" t="s">
+    <row r="39" spans="2:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="194" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="213"/>
-      <c r="D39" s="213"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="214"/>
-      <c r="H39" s="207" t="s">
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="I39" s="193"/>
-      <c r="J39" s="193"/>
-      <c r="K39" s="193"/>
-      <c r="L39" s="193"/>
-      <c r="M39" s="208"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="172"/>
+      <c r="K39" s="172"/>
+      <c r="L39" s="172"/>
+      <c r="M39" s="187"/>
       <c r="Q39" s="22"/>
     </row>
-    <row r="40" spans="2:17" ht="21.95" customHeight="1">
-      <c r="B40" s="215"/>
-      <c r="C40" s="216"/>
-      <c r="D40" s="216"/>
-      <c r="E40" s="216"/>
-      <c r="F40" s="216"/>
-      <c r="G40" s="217"/>
-      <c r="H40" s="209" t="s">
+    <row r="40" spans="2:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="197"/>
+      <c r="C40" s="198"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="199"/>
+      <c r="H40" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="I40" s="210"/>
-      <c r="J40" s="210"/>
-      <c r="K40" s="210"/>
-      <c r="L40" s="210"/>
-      <c r="M40" s="211"/>
-    </row>
-    <row r="41" spans="2:17" ht="21.95" customHeight="1" thickBot="1">
-      <c r="B41" s="180" t="s">
+      <c r="I40" s="189"/>
+      <c r="J40" s="189"/>
+      <c r="K40" s="189"/>
+      <c r="L40" s="189"/>
+      <c r="M40" s="190"/>
+    </row>
+    <row r="41" spans="2:17" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="181" t="s">
+      <c r="C41" s="215" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="181" t="s">
+      <c r="D41" s="215" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="181"/>
-      <c r="F41" s="181" t="s">
+      <c r="E41" s="215"/>
+      <c r="F41" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="182" t="s">
+      <c r="G41" s="216" t="s">
         <v>87</v>
       </c>
-      <c r="H41" s="186"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="187"/>
-      <c r="L41" s="187"/>
-      <c r="M41" s="188"/>
-    </row>
-    <row r="42" spans="2:17" ht="21.75" customHeight="1">
-      <c r="B42" s="180"/>
-      <c r="C42" s="181"/>
+      <c r="H41" s="191"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="192"/>
+      <c r="K41" s="192"/>
+      <c r="L41" s="192"/>
+      <c r="M41" s="193"/>
+    </row>
+    <row r="42" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="214"/>
+      <c r="C42" s="215"/>
       <c r="D42" s="29" t="s">
         <v>89</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="181"/>
-      <c r="G42" s="182"/>
-      <c r="H42" s="177" t="s">
+      <c r="F42" s="215"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="211" t="s">
         <v>109</v>
       </c>
-      <c r="I42" s="178"/>
-      <c r="J42" s="178"/>
-      <c r="K42" s="178"/>
-      <c r="L42" s="178"/>
-      <c r="M42" s="179"/>
-    </row>
-    <row r="43" spans="2:17" ht="21.75" customHeight="1">
+      <c r="I42" s="212"/>
+      <c r="J42" s="212"/>
+      <c r="K42" s="212"/>
+      <c r="L42" s="212"/>
+      <c r="M42" s="213"/>
+    </row>
+    <row r="43" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="92">
         <v>1301106</v>
       </c>
@@ -24181,24 +24184,24 @@
         <f>VLOOKUP($B43,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H43" s="180" t="s">
+      <c r="H43" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="I43" s="181" t="s">
+      <c r="I43" s="215" t="s">
         <v>84</v>
       </c>
-      <c r="J43" s="181" t="s">
+      <c r="J43" s="215" t="s">
         <v>85</v>
       </c>
-      <c r="K43" s="181"/>
-      <c r="L43" s="181" t="s">
+      <c r="K43" s="215"/>
+      <c r="L43" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="M43" s="182" t="s">
+      <c r="M43" s="216" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="2:17" ht="21.95" customHeight="1">
+    <row r="44" spans="2:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="92">
         <v>1301108</v>
       </c>
@@ -24222,18 +24225,18 @@
         <f>VLOOKUP($B44,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>1301106</v>
       </c>
-      <c r="H44" s="180"/>
-      <c r="I44" s="181"/>
+      <c r="H44" s="214"/>
+      <c r="I44" s="215"/>
       <c r="J44" s="29" t="s">
         <v>89</v>
       </c>
       <c r="K44" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="L44" s="181"/>
-      <c r="M44" s="182"/>
-    </row>
-    <row r="45" spans="2:17" ht="21.95" customHeight="1">
+      <c r="L44" s="215"/>
+      <c r="M44" s="216"/>
+    </row>
+    <row r="45" spans="2:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="92">
         <v>1301111</v>
       </c>
@@ -24279,7 +24282,7 @@
         <v>1301305</v>
       </c>
     </row>
-    <row r="46" spans="2:17" ht="21.95" customHeight="1">
+    <row r="46" spans="2:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="92">
         <v>1301150</v>
       </c>
@@ -24322,7 +24325,7 @@
         <v>1302383</v>
       </c>
     </row>
-    <row r="47" spans="2:17" ht="25.5" customHeight="1">
+    <row r="47" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="92">
         <v>1301266</v>
       </c>
@@ -24365,7 +24368,7 @@
         <v>1302281</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="26.25" customHeight="1">
+    <row r="48" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="92">
         <v>1301270</v>
       </c>
@@ -24408,7 +24411,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="2:18" ht="21.95" customHeight="1">
+    <row r="49" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="92">
         <v>1501110</v>
       </c>
@@ -24450,10 +24453,10 @@
       <c r="M49" s="90">
         <v>1302384</v>
       </c>
-      <c r="Q49" s="193"/>
-      <c r="R49" s="193"/>
-    </row>
-    <row r="50" spans="2:18" ht="21.95" customHeight="1">
+      <c r="Q49" s="172"/>
+      <c r="R49" s="172"/>
+    </row>
+    <row r="50" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="92">
         <v>1501212</v>
       </c>
@@ -24496,11 +24499,11 @@
         <v>1302383</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
-      <c r="B51" s="194" t="s">
+    <row r="51" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="195"/>
+      <c r="C51" s="174"/>
       <c r="D51" s="31">
         <f>SUM(D43:D50)</f>
         <v>22</v>
@@ -24533,15 +24536,15 @@
         <v>1301305</v>
       </c>
     </row>
-    <row r="52" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B52" s="196" t="s">
+    <row r="52" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="175" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="197"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="197"/>
-      <c r="F52" s="197"/>
-      <c r="G52" s="198"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="176"/>
+      <c r="E52" s="176"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="177"/>
       <c r="H52" s="125">
         <v>1302461</v>
       </c>
@@ -24562,13 +24565,13 @@
       </c>
       <c r="R52" s="22"/>
     </row>
-    <row r="53" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B53" s="199"/>
-      <c r="C53" s="200"/>
-      <c r="D53" s="200"/>
-      <c r="E53" s="200"/>
-      <c r="F53" s="200"/>
-      <c r="G53" s="201"/>
+    <row r="53" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="178"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="179"/>
+      <c r="E53" s="179"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="180"/>
       <c r="H53" s="124">
         <v>1302461</v>
       </c>
@@ -24588,13 +24591,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="2:18" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B54" s="202"/>
-      <c r="C54" s="203"/>
-      <c r="D54" s="203"/>
-      <c r="E54" s="203"/>
-      <c r="F54" s="203"/>
-      <c r="G54" s="204"/>
+    <row r="54" spans="2:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="181"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="182"/>
+      <c r="E54" s="182"/>
+      <c r="F54" s="182"/>
+      <c r="G54" s="183"/>
       <c r="H54" s="125">
         <v>1302315</v>
       </c>
@@ -24614,15 +24617,15 @@
         <v>1302384</v>
       </c>
     </row>
-    <row r="55" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B55" s="183" t="s">
+    <row r="55" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="217" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="184"/>
-      <c r="D55" s="184"/>
-      <c r="E55" s="184"/>
-      <c r="F55" s="184"/>
-      <c r="G55" s="185"/>
+      <c r="C55" s="218"/>
+      <c r="D55" s="218"/>
+      <c r="E55" s="218"/>
+      <c r="F55" s="218"/>
+      <c r="G55" s="219"/>
       <c r="H55" s="124">
         <v>1302481</v>
       </c>
@@ -24647,13 +24650,13 @@
         <v>1302384</v>
       </c>
     </row>
-    <row r="56" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
-      <c r="B56" s="186"/>
-      <c r="C56" s="187"/>
-      <c r="D56" s="187"/>
-      <c r="E56" s="187"/>
-      <c r="F56" s="187"/>
-      <c r="G56" s="188"/>
+    <row r="56" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="191"/>
+      <c r="C56" s="192"/>
+      <c r="D56" s="192"/>
+      <c r="E56" s="192"/>
+      <c r="F56" s="192"/>
+      <c r="G56" s="193"/>
       <c r="H56" s="124">
         <v>1302392</v>
       </c>
@@ -24677,15 +24680,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B57" s="160" t="s">
+    <row r="57" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="168" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="161"/>
-      <c r="D57" s="161"/>
-      <c r="E57" s="161"/>
-      <c r="F57" s="161"/>
-      <c r="G57" s="162"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="169"/>
+      <c r="G57" s="170"/>
       <c r="H57" s="125">
         <v>1302413</v>
       </c>
@@ -24705,15 +24708,15 @@
         <v>1301341</v>
       </c>
     </row>
-    <row r="58" spans="2:18" ht="21.95" customHeight="1">
-      <c r="B58" s="189" t="s">
+    <row r="58" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="220" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="190"/>
-      <c r="D58" s="190"/>
-      <c r="E58" s="190"/>
-      <c r="F58" s="190"/>
-      <c r="G58" s="191"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="221"/>
+      <c r="E58" s="221"/>
+      <c r="F58" s="221"/>
+      <c r="G58" s="222"/>
       <c r="H58" s="94">
         <v>1302414</v>
       </c>
@@ -24733,13 +24736,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
-      <c r="B59" s="186"/>
-      <c r="C59" s="187"/>
-      <c r="D59" s="187"/>
-      <c r="E59" s="187"/>
-      <c r="F59" s="187"/>
-      <c r="G59" s="188"/>
+    <row r="59" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="191"/>
+      <c r="C59" s="192"/>
+      <c r="D59" s="192"/>
+      <c r="E59" s="192"/>
+      <c r="F59" s="192"/>
+      <c r="G59" s="193"/>
       <c r="H59" s="124">
         <v>1302490</v>
       </c>
@@ -24763,49 +24766,49 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="2:18" ht="21.95" customHeight="1" thickBot="1">
-      <c r="B60" s="174" t="s">
+    <row r="60" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="208" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="175"/>
-      <c r="D60" s="175"/>
-      <c r="E60" s="175"/>
-      <c r="F60" s="175"/>
-      <c r="G60" s="175"/>
-      <c r="H60" s="175"/>
-      <c r="I60" s="175"/>
-      <c r="J60" s="175"/>
-      <c r="K60" s="175"/>
-      <c r="L60" s="175"/>
-      <c r="M60" s="176"/>
-    </row>
-    <row r="61" spans="2:18" ht="21.95" customHeight="1">
+      <c r="C60" s="209"/>
+      <c r="D60" s="209"/>
+      <c r="E60" s="209"/>
+      <c r="F60" s="209"/>
+      <c r="G60" s="209"/>
+      <c r="H60" s="209"/>
+      <c r="I60" s="209"/>
+      <c r="J60" s="209"/>
+      <c r="K60" s="209"/>
+      <c r="L60" s="209"/>
+      <c r="M60" s="210"/>
+    </row>
+    <row r="61" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F61" s="19"/>
       <c r="J61" s="22"/>
       <c r="L61" s="19"/>
     </row>
-    <row r="62" spans="2:18" ht="21.95" customHeight="1">
+    <row r="62" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F62" s="19"/>
       <c r="J62" s="22"/>
       <c r="L62" s="19"/>
     </row>
-    <row r="63" spans="2:18" ht="21.95" customHeight="1">
+    <row r="63" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F63" s="19"/>
       <c r="J63" s="22"/>
       <c r="L63" s="19"/>
     </row>
-    <row r="64" spans="2:18" ht="21.95" customHeight="1">
+    <row r="64" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F64" s="19"/>
       <c r="J64" s="22"/>
       <c r="L64" s="19"/>
     </row>
-    <row r="65" spans="6:6" ht="21.95" customHeight="1">
+    <row r="65" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F65" s="19"/>
     </row>
-    <row r="66" spans="6:6" ht="21.95" customHeight="1">
+    <row r="66" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F66" s="19"/>
     </row>
-    <row r="67" spans="6:6" ht="21.95" customHeight="1">
+    <row r="67" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F67" s="19"/>
     </row>
   </sheetData>
@@ -24813,19 +24816,39 @@
     <sortCondition ref="H41"/>
   </sortState>
   <mergeCells count="62">
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B60:M60"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="B55:G56"/>
+    <mergeCell ref="B58:G59"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="Q49:R49"/>
     <mergeCell ref="B51:C51"/>
@@ -24842,39 +24865,19 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B60:M60"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="B55:G56"/>
-    <mergeCell ref="B58:G59"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -24895,7 +24898,7 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="14" customWidth="1"/>
@@ -24912,76 +24915,76 @@
     <col min="15" max="16384" width="2.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="30" customHeight="1" thickBot="1">
-      <c r="B1" s="255" t="s">
+    <row r="1" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="241" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="258"/>
-    </row>
-    <row r="2" spans="2:14" s="15" customFormat="1" ht="13.9" thickBot="1">
-      <c r="B2" s="247" t="s">
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="244"/>
+    </row>
+    <row r="2" spans="2:14" s="15" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="250" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="84"/>
-      <c r="I2" s="247" t="s">
+      <c r="I2" s="250" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="247"/>
-      <c r="M2" s="247"/>
-      <c r="N2" s="247"/>
-    </row>
-    <row r="3" spans="2:14" ht="11.45">
-      <c r="B3" s="245" t="s">
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="250"/>
+    </row>
+    <row r="3" spans="2:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="B3" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="248" t="s">
+      <c r="C3" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="248" t="s">
+      <c r="D3" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
-      <c r="G3" s="243" t="s">
+      <c r="E3" s="245"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="246" t="s">
         <v>129</v>
       </c>
       <c r="H3" s="55"/>
-      <c r="I3" s="245" t="s">
+      <c r="I3" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="248" t="s">
+      <c r="J3" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="248" t="s">
+      <c r="K3" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
-      <c r="N3" s="243" t="s">
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="246" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="11.45">
-      <c r="B4" s="246"/>
-      <c r="C4" s="249"/>
+    <row r="4" spans="2:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="B4" s="252"/>
+      <c r="C4" s="253"/>
       <c r="D4" s="56" t="s">
         <v>130</v>
       </c>
@@ -24991,10 +24994,10 @@
       <c r="F4" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="244"/>
+      <c r="G4" s="247"/>
       <c r="H4" s="55"/>
-      <c r="I4" s="246"/>
-      <c r="J4" s="249"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="253"/>
       <c r="K4" s="56" t="s">
         <v>130</v>
       </c>
@@ -25004,9 +25007,9 @@
       <c r="M4" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="244"/>
-    </row>
-    <row r="5" spans="2:14" ht="11.45">
+      <c r="N4" s="247"/>
+    </row>
+    <row r="5" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B5" s="57">
         <v>1401116</v>
       </c>
@@ -25055,7 +25058,7 @@
         <v>1301106</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="11.45">
+    <row r="6" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="57">
         <v>1301106</v>
       </c>
@@ -25104,7 +25107,7 @@
         <v>1301111</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="11.45">
+    <row r="7" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B7" s="57">
         <v>1301111</v>
       </c>
@@ -25153,7 +25156,7 @@
         <v>1501110</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="11.45">
+    <row r="8" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B8" s="57">
         <v>1401124</v>
       </c>
@@ -25201,7 +25204,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="11.45">
+    <row r="9" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B9" s="57">
         <v>1501110</v>
       </c>
@@ -25250,11 +25253,11 @@
         <v>1501110</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="12" thickBot="1">
-      <c r="B10" s="241" t="s">
+    <row r="10" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="242"/>
+      <c r="C10" s="249"/>
       <c r="D10" s="62">
         <f>SUM(D5:D9)</f>
         <v>14</v>
@@ -25269,10 +25272,10 @@
       </c>
       <c r="G10" s="63"/>
       <c r="H10" s="64"/>
-      <c r="I10" s="241" t="s">
+      <c r="I10" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="242"/>
+      <c r="J10" s="249"/>
       <c r="K10" s="62">
         <f>SUM(K5:K9)</f>
         <v>14</v>
@@ -25287,7 +25290,7 @@
       </c>
       <c r="N10" s="63"/>
     </row>
-    <row r="11" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="11" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="74"/>
       <c r="C11" s="74"/>
       <c r="D11" s="74"/>
@@ -25302,59 +25305,59 @@
       <c r="M11" s="74"/>
       <c r="N11" s="75"/>
     </row>
-    <row r="12" spans="2:14" s="15" customFormat="1" ht="13.9" thickBot="1">
-      <c r="B12" s="247" t="s">
+    <row r="12" spans="2:14" s="15" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="250" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="247"/>
-      <c r="D12" s="247"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
+      <c r="C12" s="250"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="250"/>
+      <c r="F12" s="250"/>
+      <c r="G12" s="250"/>
       <c r="H12" s="83"/>
-      <c r="I12" s="247" t="s">
+      <c r="I12" s="250" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="247"/>
-      <c r="K12" s="247"/>
-      <c r="L12" s="247"/>
-      <c r="M12" s="247"/>
-      <c r="N12" s="247"/>
-    </row>
-    <row r="13" spans="2:14" ht="11.45">
-      <c r="B13" s="245" t="s">
+      <c r="J12" s="250"/>
+      <c r="K12" s="250"/>
+      <c r="L12" s="250"/>
+      <c r="M12" s="250"/>
+      <c r="N12" s="250"/>
+    </row>
+    <row r="13" spans="2:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="B13" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="248" t="s">
+      <c r="C13" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="248" t="s">
+      <c r="D13" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="248"/>
-      <c r="F13" s="248"/>
-      <c r="G13" s="243" t="s">
+      <c r="E13" s="245"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="246" t="s">
         <v>129</v>
       </c>
       <c r="H13" s="65"/>
-      <c r="I13" s="245" t="s">
+      <c r="I13" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="248" t="s">
+      <c r="J13" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="248" t="s">
+      <c r="K13" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="248"/>
-      <c r="M13" s="248"/>
-      <c r="N13" s="243" t="s">
+      <c r="L13" s="245"/>
+      <c r="M13" s="245"/>
+      <c r="N13" s="246" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="11.45">
-      <c r="B14" s="246"/>
-      <c r="C14" s="249"/>
+    <row r="14" spans="2:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="B14" s="252"/>
+      <c r="C14" s="253"/>
       <c r="D14" s="56" t="s">
         <v>130</v>
       </c>
@@ -25364,10 +25367,10 @@
       <c r="F14" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="244"/>
+      <c r="G14" s="247"/>
       <c r="H14" s="65"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="249"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="253"/>
       <c r="K14" s="56" t="s">
         <v>130</v>
       </c>
@@ -25377,9 +25380,9 @@
       <c r="M14" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="244"/>
-    </row>
-    <row r="15" spans="2:14" ht="11.45">
+      <c r="N14" s="247"/>
+    </row>
+    <row r="15" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="57">
         <v>1301150</v>
       </c>
@@ -25428,7 +25431,7 @@
         <v>1301108</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="11.45">
+    <row r="16" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B16" s="57">
         <v>1301203</v>
       </c>
@@ -25477,7 +25480,7 @@
         <v>1301120</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="11.45">
+    <row r="17" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B17" s="57">
         <v>1301266</v>
       </c>
@@ -25525,7 +25528,7 @@
         <v>1301108</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="11.45">
+    <row r="18" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
         <v>1302281</v>
       </c>
@@ -25574,7 +25577,7 @@
         <v>1302281</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="11.45">
+    <row r="19" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="57">
         <v>1401123</v>
       </c>
@@ -25623,7 +25626,7 @@
         <v>1302281</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="11.45">
+    <row r="20" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="57" t="s">
         <v>21</v>
       </c>
@@ -25667,11 +25670,11 @@
         <v>1302281</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="12" thickBot="1">
-      <c r="B21" s="241" t="s">
+    <row r="21" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="248" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="242"/>
+      <c r="C21" s="249"/>
       <c r="D21" s="62">
         <f>SUM(D15:D20)</f>
         <v>17</v>
@@ -25686,10 +25689,10 @@
       </c>
       <c r="G21" s="63"/>
       <c r="H21" s="65"/>
-      <c r="I21" s="241" t="s">
+      <c r="I21" s="248" t="s">
         <v>134</v>
       </c>
-      <c r="J21" s="242"/>
+      <c r="J21" s="249"/>
       <c r="K21" s="62">
         <f>SUM(K15:K20)</f>
         <v>14</v>
@@ -25704,7 +25707,7 @@
       </c>
       <c r="N21" s="63"/>
     </row>
-    <row r="22" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="22" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
       <c r="C22" s="74"/>
       <c r="D22" s="74"/>
@@ -25719,59 +25722,59 @@
       <c r="M22" s="74"/>
       <c r="N22" s="75"/>
     </row>
-    <row r="23" spans="2:14" s="15" customFormat="1" ht="13.9" thickBot="1">
-      <c r="B23" s="247" t="s">
+    <row r="23" spans="2:14" s="15" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="250" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="247"/>
-      <c r="D23" s="247"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="247"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="250"/>
+      <c r="E23" s="250"/>
+      <c r="F23" s="250"/>
+      <c r="G23" s="250"/>
       <c r="H23" s="82"/>
-      <c r="I23" s="247" t="s">
+      <c r="I23" s="250" t="s">
         <v>136</v>
       </c>
-      <c r="J23" s="247"/>
-      <c r="K23" s="247"/>
-      <c r="L23" s="247"/>
-      <c r="M23" s="247"/>
-      <c r="N23" s="247"/>
-    </row>
-    <row r="24" spans="2:14" ht="11.45">
-      <c r="B24" s="245" t="s">
+      <c r="J23" s="250"/>
+      <c r="K23" s="250"/>
+      <c r="L23" s="250"/>
+      <c r="M23" s="250"/>
+      <c r="N23" s="250"/>
+    </row>
+    <row r="24" spans="2:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="B24" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="248" t="s">
+      <c r="C24" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="248" t="s">
+      <c r="D24" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="248"/>
-      <c r="F24" s="248"/>
-      <c r="G24" s="243" t="s">
+      <c r="E24" s="245"/>
+      <c r="F24" s="245"/>
+      <c r="G24" s="246" t="s">
         <v>129</v>
       </c>
       <c r="H24" s="65"/>
-      <c r="I24" s="245" t="s">
+      <c r="I24" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="248" t="s">
+      <c r="J24" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="248" t="s">
+      <c r="K24" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="248"/>
-      <c r="M24" s="248"/>
-      <c r="N24" s="243" t="s">
+      <c r="L24" s="245"/>
+      <c r="M24" s="245"/>
+      <c r="N24" s="246" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="11.45">
-      <c r="B25" s="246"/>
-      <c r="C25" s="249"/>
+    <row r="25" spans="2:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="B25" s="252"/>
+      <c r="C25" s="253"/>
       <c r="D25" s="56" t="s">
         <v>130</v>
       </c>
@@ -25781,10 +25784,10 @@
       <c r="F25" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="244"/>
+      <c r="G25" s="247"/>
       <c r="H25" s="65"/>
-      <c r="I25" s="246"/>
-      <c r="J25" s="249"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="253"/>
       <c r="K25" s="56" t="s">
         <v>130</v>
       </c>
@@ -25794,9 +25797,9 @@
       <c r="M25" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="244"/>
-    </row>
-    <row r="26" spans="2:14" ht="11.45">
+      <c r="N25" s="247"/>
+    </row>
+    <row r="26" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="57">
         <v>1301305</v>
       </c>
@@ -25845,7 +25848,7 @@
         <v>1301305</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="11.45">
+    <row r="27" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="57">
         <v>1301310</v>
       </c>
@@ -25894,7 +25897,7 @@
         <v>1301326</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="11.45">
+    <row r="28" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="57">
         <v>1301326</v>
       </c>
@@ -25943,7 +25946,7 @@
         <v>1301305</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="11.45">
+    <row r="29" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B29" s="57">
         <v>1302384</v>
       </c>
@@ -25992,7 +25995,7 @@
         <v>1302384</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="11.45">
+    <row r="30" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B30" s="57" t="s">
         <v>21</v>
       </c>
@@ -26036,7 +26039,7 @@
         <v>1302384</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="11.45">
+    <row r="31" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B31" s="57" t="s">
         <v>21</v>
       </c>
@@ -26078,11 +26081,11 @@
         <v>1302384</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="12" thickBot="1">
-      <c r="B32" s="241" t="s">
+    <row r="32" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="248" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="242"/>
+      <c r="C32" s="249"/>
       <c r="D32" s="62">
         <f>SUM(D26:D31)</f>
         <v>16</v>
@@ -26097,10 +26100,10 @@
       </c>
       <c r="G32" s="63"/>
       <c r="H32" s="66"/>
-      <c r="I32" s="241" t="s">
+      <c r="I32" s="248" t="s">
         <v>134</v>
       </c>
-      <c r="J32" s="242"/>
+      <c r="J32" s="249"/>
       <c r="K32" s="62">
         <f t="shared" ref="K32:L32" si="1">SUM(K26:K31)</f>
         <v>16</v>
@@ -26115,7 +26118,7 @@
       </c>
       <c r="N32" s="63"/>
     </row>
-    <row r="33" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="33" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
@@ -26130,7 +26133,7 @@
       <c r="M33" s="77"/>
       <c r="N33" s="77"/>
     </row>
-    <row r="34" spans="2:14" s="45" customFormat="1" ht="12" thickBot="1">
+    <row r="34" spans="2:14" s="45" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="67">
         <v>1302368</v>
       </c>
@@ -26164,7 +26167,7 @@
       <c r="M34" s="71"/>
       <c r="N34" s="73"/>
     </row>
-    <row r="35" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="35" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="78"/>
       <c r="C35" s="79"/>
       <c r="D35" s="78"/>
@@ -26179,59 +26182,59 @@
       <c r="M35" s="78"/>
       <c r="N35" s="78"/>
     </row>
-    <row r="36" spans="2:14" s="15" customFormat="1" ht="13.9" thickBot="1">
-      <c r="B36" s="247" t="s">
+    <row r="36" spans="2:14" s="15" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="250" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="247"/>
-      <c r="D36" s="247"/>
-      <c r="E36" s="247"/>
-      <c r="F36" s="247"/>
-      <c r="G36" s="247"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
+      <c r="E36" s="250"/>
+      <c r="F36" s="250"/>
+      <c r="G36" s="250"/>
       <c r="H36" s="82"/>
-      <c r="I36" s="247" t="s">
+      <c r="I36" s="250" t="s">
         <v>141</v>
       </c>
-      <c r="J36" s="247"/>
-      <c r="K36" s="247"/>
-      <c r="L36" s="247"/>
-      <c r="M36" s="247"/>
-      <c r="N36" s="247"/>
-    </row>
-    <row r="37" spans="2:14" ht="11.45">
-      <c r="B37" s="245" t="s">
+      <c r="J36" s="250"/>
+      <c r="K36" s="250"/>
+      <c r="L36" s="250"/>
+      <c r="M36" s="250"/>
+      <c r="N36" s="250"/>
+    </row>
+    <row r="37" spans="2:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="B37" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="248" t="s">
+      <c r="C37" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="248" t="s">
+      <c r="D37" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="248"/>
-      <c r="F37" s="248"/>
-      <c r="G37" s="243" t="s">
+      <c r="E37" s="245"/>
+      <c r="F37" s="245"/>
+      <c r="G37" s="246" t="s">
         <v>129</v>
       </c>
       <c r="H37" s="65"/>
-      <c r="I37" s="245" t="s">
+      <c r="I37" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="248" t="s">
+      <c r="J37" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="K37" s="248" t="s">
+      <c r="K37" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="248"/>
-      <c r="M37" s="248"/>
-      <c r="N37" s="243" t="s">
+      <c r="L37" s="245"/>
+      <c r="M37" s="245"/>
+      <c r="N37" s="246" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="11.45">
-      <c r="B38" s="246"/>
-      <c r="C38" s="249"/>
+    <row r="38" spans="2:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="B38" s="252"/>
+      <c r="C38" s="253"/>
       <c r="D38" s="56" t="s">
         <v>130</v>
       </c>
@@ -26241,10 +26244,10 @@
       <c r="F38" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="244"/>
+      <c r="G38" s="247"/>
       <c r="H38" s="65"/>
-      <c r="I38" s="246"/>
-      <c r="J38" s="249"/>
+      <c r="I38" s="252"/>
+      <c r="J38" s="253"/>
       <c r="K38" s="56" t="s">
         <v>130</v>
       </c>
@@ -26254,9 +26257,9 @@
       <c r="M38" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="244"/>
-    </row>
-    <row r="39" spans="2:14" ht="11.45">
+      <c r="N38" s="247"/>
+    </row>
+    <row r="39" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B39" s="57">
         <v>1302485</v>
       </c>
@@ -26305,7 +26308,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="11.45">
+    <row r="40" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B40" s="57">
         <v>1302491</v>
       </c>
@@ -26354,7 +26357,7 @@
         <v>1302491</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="11.45">
+    <row r="41" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B41" s="57">
         <v>1302460</v>
       </c>
@@ -26402,7 +26405,7 @@
         <v>1302485 + 1302486</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="11.45">
+    <row r="42" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B42" s="57">
         <v>1302338</v>
       </c>
@@ -26446,7 +26449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="11.45">
+    <row r="43" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B43" s="57" t="s">
         <v>21</v>
       </c>
@@ -26466,26 +26469,26 @@
         <v>21</v>
       </c>
       <c r="H43" s="61"/>
-      <c r="I43" s="237" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" s="238" t="s">
+      <c r="I43" s="255" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="256" t="s">
         <v>142</v>
       </c>
-      <c r="K43" s="240">
-        <v>3</v>
-      </c>
-      <c r="L43" s="240">
+      <c r="K43" s="258">
+        <v>3</v>
+      </c>
+      <c r="L43" s="258">
         <v>0</v>
       </c>
-      <c r="M43" s="240">
-        <v>3</v>
-      </c>
-      <c r="N43" s="236" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="11.45">
+      <c r="M43" s="258">
+        <v>3</v>
+      </c>
+      <c r="N43" s="254" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B44" s="57" t="s">
         <v>21</v>
       </c>
@@ -26505,18 +26508,18 @@
         <v>21</v>
       </c>
       <c r="H44" s="61"/>
-      <c r="I44" s="237"/>
-      <c r="J44" s="239"/>
-      <c r="K44" s="240"/>
-      <c r="L44" s="240"/>
-      <c r="M44" s="240"/>
-      <c r="N44" s="236"/>
-    </row>
-    <row r="45" spans="2:14" ht="12" thickBot="1">
-      <c r="B45" s="241" t="s">
+      <c r="I44" s="255"/>
+      <c r="J44" s="257"/>
+      <c r="K44" s="258"/>
+      <c r="L44" s="258"/>
+      <c r="M44" s="258"/>
+      <c r="N44" s="254"/>
+    </row>
+    <row r="45" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="242"/>
+      <c r="C45" s="249"/>
       <c r="D45" s="62">
         <f t="shared" ref="D45:E45" si="2">SUM(D39:D44)</f>
         <v>14</v>
@@ -26531,10 +26534,10 @@
       </c>
       <c r="G45" s="63"/>
       <c r="H45" s="64"/>
-      <c r="I45" s="241" t="s">
+      <c r="I45" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="J45" s="242"/>
+      <c r="J45" s="249"/>
       <c r="K45" s="62">
         <f>SUM(K39:K43)</f>
         <v>12</v>
@@ -26549,7 +26552,7 @@
       </c>
       <c r="N45" s="63"/>
     </row>
-    <row r="46" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="46" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="80"/>
       <c r="C46" s="80"/>
       <c r="D46" s="80"/>
@@ -26557,41 +26560,84 @@
       <c r="F46" s="80"/>
       <c r="G46" s="81"/>
       <c r="H46" s="46"/>
-      <c r="I46" s="254"/>
-      <c r="J46" s="254"/>
-      <c r="K46" s="254"/>
+      <c r="I46" s="240"/>
+      <c r="J46" s="240"/>
+      <c r="K46" s="240"/>
       <c r="L46" s="81"/>
       <c r="M46" s="81"/>
       <c r="N46" s="81"/>
     </row>
-    <row r="47" spans="2:14" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B47" s="250" t="s">
+    <row r="47" spans="2:14" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="236" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="251"/>
-      <c r="D47" s="251"/>
-      <c r="E47" s="251"/>
-      <c r="F47" s="251"/>
-      <c r="G47" s="251"/>
-      <c r="H47" s="252">
+      <c r="C47" s="237"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="237"/>
+      <c r="F47" s="237"/>
+      <c r="G47" s="237"/>
+      <c r="H47" s="238">
         <f>F10+M10+F21+M21+F32+M32+F34+F45+M45</f>
         <v>132</v>
       </c>
-      <c r="I47" s="252"/>
-      <c r="J47" s="252" t="s">
+      <c r="I47" s="238"/>
+      <c r="J47" s="238" t="s">
         <v>144</v>
       </c>
-      <c r="K47" s="252"/>
-      <c r="L47" s="252"/>
-      <c r="M47" s="252"/>
-      <c r="N47" s="253"/>
-    </row>
-    <row r="48" spans="2:14" ht="11.45"/>
+      <c r="K47" s="238"/>
+      <c r="L47" s="238"/>
+      <c r="M47" s="238"/>
+      <c r="N47" s="239"/>
+    </row>
+    <row r="48" spans="2:14" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I39:I41">
     <sortCondition ref="I39"/>
   </sortState>
   <mergeCells count="59">
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:G38"/>
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="J47:N47"/>
@@ -26608,49 +26654,6 @@
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="J37:J38"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -26668,10 +26671,10 @@
   <dimension ref="B1:N47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="14.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="46" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="46" customWidth="1"/>
@@ -26686,76 +26689,76 @@
     <col min="15" max="16384" width="2.7109375" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="50" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B1" s="259" t="s">
+    <row r="1" spans="2:14" s="50" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="273" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
-      <c r="N1" s="259"/>
-    </row>
-    <row r="2" spans="2:14" s="54" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B2" s="260" t="s">
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+    </row>
+    <row r="2" spans="2:14" s="54" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="271" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
       <c r="H2" s="51"/>
-      <c r="I2" s="261" t="s">
+      <c r="I2" s="272" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="260"/>
-      <c r="N2" s="260"/>
-    </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1">
-      <c r="B3" s="262" t="s">
+      <c r="J2" s="271"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="271"/>
+      <c r="M2" s="271"/>
+      <c r="N2" s="271"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="269" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="264" t="s">
+      <c r="C3" s="267" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="248" t="s">
+      <c r="D3" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
-      <c r="G3" s="243" t="s">
+      <c r="E3" s="245"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="246" t="s">
         <v>149</v>
       </c>
       <c r="H3" s="55"/>
-      <c r="I3" s="262" t="s">
+      <c r="I3" s="269" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="264" t="s">
+      <c r="J3" s="267" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="248" t="s">
+      <c r="K3" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
-      <c r="N3" s="243" t="s">
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="246" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1">
-      <c r="B4" s="263"/>
-      <c r="C4" s="265"/>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="270"/>
+      <c r="C4" s="268"/>
       <c r="D4" s="56" t="s">
         <v>150</v>
       </c>
@@ -26765,10 +26768,10 @@
       <c r="F4" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="244"/>
+      <c r="G4" s="247"/>
       <c r="H4" s="55"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="265"/>
+      <c r="I4" s="270"/>
+      <c r="J4" s="268"/>
       <c r="K4" s="56" t="s">
         <v>150</v>
       </c>
@@ -26778,9 +26781,9 @@
       <c r="M4" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="244"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1">
+      <c r="N4" s="247"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="57">
         <v>1401116</v>
       </c>
@@ -26829,7 +26832,7 @@
         <v>1301106</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1">
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="57">
         <v>1301106</v>
       </c>
@@ -26878,7 +26881,7 @@
         <v>1301111</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1">
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="57">
         <v>1301111</v>
       </c>
@@ -26927,7 +26930,7 @@
         <v>1501110</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1">
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="57">
         <v>1401124</v>
       </c>
@@ -26975,7 +26978,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1">
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="57">
         <v>1501110</v>
       </c>
@@ -27024,11 +27027,11 @@
         <v>1501110</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B10" s="241" t="s">
+    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="242"/>
+      <c r="C10" s="249"/>
       <c r="D10" s="62">
         <f>SUM(D5:D9)</f>
         <v>14</v>
@@ -27043,10 +27046,10 @@
       </c>
       <c r="G10" s="63"/>
       <c r="H10" s="64"/>
-      <c r="I10" s="241" t="s">
+      <c r="I10" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="242"/>
+      <c r="J10" s="249"/>
       <c r="K10" s="62">
         <f>SUM(K5:K9)</f>
         <v>14</v>
@@ -27061,7 +27064,7 @@
       </c>
       <c r="N10" s="63"/>
     </row>
-    <row r="11" spans="2:14" ht="3.75" customHeight="1" thickBot="1">
+    <row r="11" spans="2:14" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="33"/>
       <c r="C11" s="41"/>
       <c r="D11" s="33"/>
@@ -27076,59 +27079,59 @@
       <c r="M11" s="33"/>
       <c r="N11" s="34"/>
     </row>
-    <row r="12" spans="2:14" s="54" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B12" s="261" t="s">
+    <row r="12" spans="2:14" s="54" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="272" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="260"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="260"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="260"/>
+      <c r="C12" s="271"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="271"/>
+      <c r="F12" s="271"/>
+      <c r="G12" s="271"/>
       <c r="H12" s="52"/>
-      <c r="I12" s="260" t="s">
+      <c r="I12" s="271" t="s">
         <v>153</v>
       </c>
-      <c r="J12" s="260"/>
-      <c r="K12" s="260"/>
-      <c r="L12" s="260"/>
-      <c r="M12" s="260"/>
-      <c r="N12" s="260"/>
-    </row>
-    <row r="13" spans="2:14" ht="15" customHeight="1">
-      <c r="B13" s="262" t="s">
+      <c r="J12" s="271"/>
+      <c r="K12" s="271"/>
+      <c r="L12" s="271"/>
+      <c r="M12" s="271"/>
+      <c r="N12" s="271"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="269" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="264" t="s">
+      <c r="C13" s="267" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="248" t="s">
+      <c r="D13" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="248"/>
-      <c r="F13" s="248"/>
-      <c r="G13" s="243" t="s">
+      <c r="E13" s="245"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="246" t="s">
         <v>149</v>
       </c>
       <c r="H13" s="65"/>
-      <c r="I13" s="262" t="s">
+      <c r="I13" s="269" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="264" t="s">
+      <c r="J13" s="267" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="248" t="s">
+      <c r="K13" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="248"/>
-      <c r="M13" s="248"/>
-      <c r="N13" s="243" t="s">
+      <c r="L13" s="245"/>
+      <c r="M13" s="245"/>
+      <c r="N13" s="246" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1">
-      <c r="B14" s="263"/>
-      <c r="C14" s="265"/>
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="270"/>
+      <c r="C14" s="268"/>
       <c r="D14" s="56" t="s">
         <v>150</v>
       </c>
@@ -27138,10 +27141,10 @@
       <c r="F14" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="244"/>
+      <c r="G14" s="247"/>
       <c r="H14" s="65"/>
-      <c r="I14" s="263"/>
-      <c r="J14" s="265"/>
+      <c r="I14" s="270"/>
+      <c r="J14" s="268"/>
       <c r="K14" s="56" t="s">
         <v>150</v>
       </c>
@@ -27151,9 +27154,9 @@
       <c r="M14" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="N14" s="244"/>
-    </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1">
+      <c r="N14" s="247"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="57">
         <v>1301150</v>
       </c>
@@ -27202,7 +27205,7 @@
         <v>1301108</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="24.75" customHeight="1">
+    <row r="16" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="57">
         <v>1301203</v>
       </c>
@@ -27251,7 +27254,7 @@
         <v>1301120</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="25.5" customHeight="1">
+    <row r="17" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="57">
         <v>1301266</v>
       </c>
@@ -27299,7 +27302,7 @@
         <v>1301108</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="23.25" customHeight="1">
+    <row r="18" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
         <v>1302281</v>
       </c>
@@ -27348,7 +27351,7 @@
         <v>1302281</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1">
+    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="57">
         <v>1401123</v>
       </c>
@@ -27397,7 +27400,7 @@
         <v>1302281</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1">
+    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="57" t="s">
         <v>21</v>
       </c>
@@ -27441,11 +27444,11 @@
         <v>1302281</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B21" s="241" t="s">
+    <row r="21" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="248" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="242"/>
+      <c r="C21" s="249"/>
       <c r="D21" s="62">
         <f>SUM(D15:D20)</f>
         <v>17</v>
@@ -27460,10 +27463,10 @@
       </c>
       <c r="G21" s="63"/>
       <c r="H21" s="65"/>
-      <c r="I21" s="241" t="s">
+      <c r="I21" s="248" t="s">
         <v>155</v>
       </c>
-      <c r="J21" s="242"/>
+      <c r="J21" s="249"/>
       <c r="K21" s="62">
         <f>SUM(K15:K20)</f>
         <v>14</v>
@@ -27478,7 +27481,7 @@
       </c>
       <c r="N21" s="63"/>
     </row>
-    <row r="22" spans="2:14" ht="3.75" customHeight="1" thickBot="1">
+    <row r="22" spans="2:14" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
       <c r="C22" s="41"/>
       <c r="D22" s="33"/>
@@ -27493,59 +27496,59 @@
       <c r="M22" s="33"/>
       <c r="N22" s="34"/>
     </row>
-    <row r="23" spans="2:14" s="54" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B23" s="260" t="s">
+    <row r="23" spans="2:14" s="54" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="271" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="260"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="260"/>
-      <c r="F23" s="260"/>
-      <c r="G23" s="260"/>
+      <c r="C23" s="271"/>
+      <c r="D23" s="271"/>
+      <c r="E23" s="271"/>
+      <c r="F23" s="271"/>
+      <c r="G23" s="271"/>
       <c r="H23" s="53"/>
-      <c r="I23" s="260" t="s">
+      <c r="I23" s="271" t="s">
         <v>157</v>
       </c>
-      <c r="J23" s="260"/>
-      <c r="K23" s="260"/>
-      <c r="L23" s="260"/>
-      <c r="M23" s="260"/>
-      <c r="N23" s="260"/>
-    </row>
-    <row r="24" spans="2:14" ht="15" customHeight="1">
-      <c r="B24" s="262" t="s">
+      <c r="J23" s="271"/>
+      <c r="K23" s="271"/>
+      <c r="L23" s="271"/>
+      <c r="M23" s="271"/>
+      <c r="N23" s="271"/>
+    </row>
+    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="269" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="264" t="s">
+      <c r="C24" s="267" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="248" t="s">
+      <c r="D24" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="248"/>
-      <c r="F24" s="248"/>
-      <c r="G24" s="243" t="s">
+      <c r="E24" s="245"/>
+      <c r="F24" s="245"/>
+      <c r="G24" s="246" t="s">
         <v>149</v>
       </c>
       <c r="H24" s="65"/>
-      <c r="I24" s="262" t="s">
+      <c r="I24" s="269" t="s">
         <v>83</v>
       </c>
-      <c r="J24" s="264" t="s">
+      <c r="J24" s="267" t="s">
         <v>148</v>
       </c>
-      <c r="K24" s="248" t="s">
+      <c r="K24" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="248"/>
-      <c r="M24" s="248"/>
-      <c r="N24" s="243" t="s">
+      <c r="L24" s="245"/>
+      <c r="M24" s="245"/>
+      <c r="N24" s="246" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="15" customHeight="1">
-      <c r="B25" s="263"/>
-      <c r="C25" s="265"/>
+    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="270"/>
+      <c r="C25" s="268"/>
       <c r="D25" s="56" t="s">
         <v>150</v>
       </c>
@@ -27555,10 +27558,10 @@
       <c r="F25" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="244"/>
+      <c r="G25" s="247"/>
       <c r="H25" s="65"/>
-      <c r="I25" s="263"/>
-      <c r="J25" s="265"/>
+      <c r="I25" s="270"/>
+      <c r="J25" s="268"/>
       <c r="K25" s="56" t="s">
         <v>150</v>
       </c>
@@ -27568,9 +27571,9 @@
       <c r="M25" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="N25" s="244"/>
-    </row>
-    <row r="26" spans="2:14" ht="15" customHeight="1">
+      <c r="N25" s="247"/>
+    </row>
+    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="57">
         <v>1301305</v>
       </c>
@@ -27619,7 +27622,7 @@
         <v>1301305</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="23.25" customHeight="1">
+    <row r="27" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="57">
         <v>1301310</v>
       </c>
@@ -27668,7 +27671,7 @@
         <v>1301326</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="15" customHeight="1">
+    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="57">
         <v>1301326</v>
       </c>
@@ -27717,7 +27720,7 @@
         <v>1301305</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1">
+    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="57">
         <v>1302384</v>
       </c>
@@ -27766,7 +27769,7 @@
         <v>1302384</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1">
+    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="57" t="s">
         <v>21</v>
       </c>
@@ -27810,7 +27813,7 @@
         <v>1302384</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="15" customHeight="1">
+    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="57" t="s">
         <v>21</v>
       </c>
@@ -27852,11 +27855,11 @@
         <v>1302384</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B32" s="241" t="s">
+    <row r="32" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="248" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="242"/>
+      <c r="C32" s="249"/>
       <c r="D32" s="62">
         <f>SUM(D26:D31)</f>
         <v>16</v>
@@ -27871,10 +27874,10 @@
       </c>
       <c r="G32" s="63"/>
       <c r="H32" s="66"/>
-      <c r="I32" s="241" t="s">
+      <c r="I32" s="248" t="s">
         <v>155</v>
       </c>
-      <c r="J32" s="242"/>
+      <c r="J32" s="249"/>
       <c r="K32" s="62">
         <f t="shared" ref="K32:L32" si="1">SUM(K26:K31)</f>
         <v>16</v>
@@ -27889,7 +27892,7 @@
       </c>
       <c r="N32" s="63"/>
     </row>
-    <row r="33" spans="2:14" ht="3.75" customHeight="1" thickBot="1">
+    <row r="33" spans="2:14" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="36"/>
       <c r="C33" s="42"/>
       <c r="D33" s="36"/>
@@ -27904,7 +27907,7 @@
       <c r="M33" s="37"/>
       <c r="N33" s="37"/>
     </row>
-    <row r="34" spans="2:14" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="34" spans="2:14" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="67">
         <v>1302368</v>
       </c>
@@ -27938,7 +27941,7 @@
       <c r="M34" s="71"/>
       <c r="N34" s="73"/>
     </row>
-    <row r="35" spans="2:14" ht="3" customHeight="1" thickBot="1">
+    <row r="35" spans="2:14" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="38"/>
       <c r="C35" s="43"/>
       <c r="D35" s="38"/>
@@ -27953,59 +27956,59 @@
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
     </row>
-    <row r="36" spans="2:14" s="54" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B36" s="260" t="s">
+    <row r="36" spans="2:14" s="54" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="271" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="260"/>
-      <c r="D36" s="260"/>
-      <c r="E36" s="260"/>
-      <c r="F36" s="260"/>
-      <c r="G36" s="260"/>
+      <c r="C36" s="271"/>
+      <c r="D36" s="271"/>
+      <c r="E36" s="271"/>
+      <c r="F36" s="271"/>
+      <c r="G36" s="271"/>
       <c r="H36" s="53"/>
-      <c r="I36" s="260" t="s">
+      <c r="I36" s="271" t="s">
         <v>161</v>
       </c>
-      <c r="J36" s="260"/>
-      <c r="K36" s="260"/>
-      <c r="L36" s="260"/>
-      <c r="M36" s="260"/>
-      <c r="N36" s="260"/>
-    </row>
-    <row r="37" spans="2:14" ht="15" customHeight="1">
-      <c r="B37" s="262" t="s">
+      <c r="J36" s="271"/>
+      <c r="K36" s="271"/>
+      <c r="L36" s="271"/>
+      <c r="M36" s="271"/>
+      <c r="N36" s="271"/>
+    </row>
+    <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="269" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="264" t="s">
+      <c r="C37" s="267" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="248" t="s">
+      <c r="D37" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="248"/>
-      <c r="F37" s="248"/>
-      <c r="G37" s="243" t="s">
+      <c r="E37" s="245"/>
+      <c r="F37" s="245"/>
+      <c r="G37" s="246" t="s">
         <v>149</v>
       </c>
       <c r="H37" s="65"/>
-      <c r="I37" s="262" t="s">
+      <c r="I37" s="269" t="s">
         <v>83</v>
       </c>
-      <c r="J37" s="264" t="s">
+      <c r="J37" s="267" t="s">
         <v>148</v>
       </c>
-      <c r="K37" s="248" t="s">
+      <c r="K37" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="248"/>
-      <c r="M37" s="248"/>
-      <c r="N37" s="243" t="s">
+      <c r="L37" s="245"/>
+      <c r="M37" s="245"/>
+      <c r="N37" s="246" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="15" customHeight="1">
-      <c r="B38" s="263"/>
-      <c r="C38" s="265"/>
+    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="270"/>
+      <c r="C38" s="268"/>
       <c r="D38" s="56" t="s">
         <v>150</v>
       </c>
@@ -28015,10 +28018,10 @@
       <c r="F38" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="244"/>
+      <c r="G38" s="247"/>
       <c r="H38" s="65"/>
-      <c r="I38" s="263"/>
-      <c r="J38" s="265"/>
+      <c r="I38" s="270"/>
+      <c r="J38" s="268"/>
       <c r="K38" s="56" t="s">
         <v>150</v>
       </c>
@@ -28028,9 +28031,9 @@
       <c r="M38" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="N38" s="244"/>
-    </row>
-    <row r="39" spans="2:14" ht="21.75" customHeight="1">
+      <c r="N38" s="247"/>
+    </row>
+    <row r="39" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="57">
         <v>1302485</v>
       </c>
@@ -28079,7 +28082,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="15" customHeight="1">
+    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="57">
         <v>1302491</v>
       </c>
@@ -28128,7 +28131,7 @@
         <v>1302491</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="15" customHeight="1">
+    <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="57">
         <v>1302460</v>
       </c>
@@ -28177,7 +28180,7 @@
         <v>1302485 + 1302486</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="15" customHeight="1">
+    <row r="42" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="57">
         <v>1302338</v>
       </c>
@@ -28221,7 +28224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="15" customHeight="1">
+    <row r="43" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="57" t="s">
         <v>21</v>
       </c>
@@ -28241,26 +28244,26 @@
         <v>21</v>
       </c>
       <c r="H43" s="61"/>
-      <c r="I43" s="237" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" s="266" t="s">
+      <c r="I43" s="255" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="265" t="s">
         <v>162</v>
       </c>
-      <c r="K43" s="240">
-        <v>3</v>
-      </c>
-      <c r="L43" s="240">
+      <c r="K43" s="258">
+        <v>3</v>
+      </c>
+      <c r="L43" s="258">
         <v>0</v>
       </c>
-      <c r="M43" s="240">
-        <v>3</v>
-      </c>
-      <c r="N43" s="236" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="15" customHeight="1">
+      <c r="M43" s="258">
+        <v>3</v>
+      </c>
+      <c r="N43" s="254" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="57" t="s">
         <v>21</v>
       </c>
@@ -28280,18 +28283,18 @@
         <v>21</v>
       </c>
       <c r="H44" s="61"/>
-      <c r="I44" s="237"/>
-      <c r="J44" s="267"/>
-      <c r="K44" s="240"/>
-      <c r="L44" s="240"/>
-      <c r="M44" s="240"/>
-      <c r="N44" s="236"/>
-    </row>
-    <row r="45" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B45" s="241" t="s">
+      <c r="I44" s="255"/>
+      <c r="J44" s="266"/>
+      <c r="K44" s="258"/>
+      <c r="L44" s="258"/>
+      <c r="M44" s="258"/>
+      <c r="N44" s="254"/>
+    </row>
+    <row r="45" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="242"/>
+      <c r="C45" s="249"/>
       <c r="D45" s="62">
         <f t="shared" ref="D45:E45" si="2">SUM(D39:D44)</f>
         <v>14</v>
@@ -28306,10 +28309,10 @@
       </c>
       <c r="G45" s="63"/>
       <c r="H45" s="64"/>
-      <c r="I45" s="241" t="s">
+      <c r="I45" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="J45" s="242"/>
+      <c r="J45" s="249"/>
       <c r="K45" s="62">
         <f>SUM(K39:K43)</f>
         <v>12</v>
@@ -28324,7 +28327,7 @@
       </c>
       <c r="N45" s="63"/>
     </row>
-    <row r="46" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="46" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="39"/>
       <c r="C46" s="44"/>
       <c r="D46" s="39"/>
@@ -28332,74 +28335,47 @@
       <c r="F46" s="39"/>
       <c r="G46" s="40"/>
       <c r="H46" s="35"/>
-      <c r="I46" s="268"/>
-      <c r="J46" s="268"/>
-      <c r="K46" s="268"/>
+      <c r="I46" s="259"/>
+      <c r="J46" s="259"/>
+      <c r="K46" s="259"/>
       <c r="L46" s="40"/>
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
     </row>
-    <row r="47" spans="2:14" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B47" s="272" t="s">
+    <row r="47" spans="2:14" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="263" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="270"/>
-      <c r="D47" s="273" t="s">
+      <c r="C47" s="261"/>
+      <c r="D47" s="264" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="273"/>
-      <c r="F47" s="273"/>
-      <c r="G47" s="273"/>
-      <c r="H47" s="269">
+      <c r="E47" s="264"/>
+      <c r="F47" s="264"/>
+      <c r="G47" s="264"/>
+      <c r="H47" s="260">
         <f>F10+M10+F21+M21+F32+M32+F34+F45+M45</f>
         <v>132</v>
       </c>
-      <c r="I47" s="269"/>
-      <c r="J47" s="270"/>
-      <c r="K47" s="270"/>
-      <c r="L47" s="270"/>
-      <c r="M47" s="270"/>
-      <c r="N47" s="271"/>
+      <c r="I47" s="260"/>
+      <c r="J47" s="261"/>
+      <c r="K47" s="261"/>
+      <c r="L47" s="261"/>
+      <c r="M47" s="261"/>
+      <c r="N47" s="262"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B1:L1"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="I13:I14"/>
@@ -28413,16 +28389,43 @@
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -28437,11 +28440,11 @@
   <dimension ref="A1:P290"/>
   <sheetViews>
     <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B233" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" style="27" bestFit="1" customWidth="1"/>
@@ -28456,7 +28459,7 @@
     <col min="12" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>165</v>
       </c>
@@ -28491,7 +28494,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24">
         <v>100103</v>
       </c>
@@ -28524,7 +28527,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1">
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
         <v>402103</v>
       </c>
@@ -28559,7 +28562,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1">
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
         <v>407102</v>
       </c>
@@ -28594,7 +28597,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>501105</v>
       </c>
@@ -28627,7 +28630,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1">
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24">
         <v>501114</v>
       </c>
@@ -28662,7 +28665,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1">
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
         <v>601426</v>
       </c>
@@ -28697,7 +28700,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1">
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>1401126</v>
       </c>
@@ -28730,7 +28733,7 @@
       </c>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>1401116</v>
       </c>
@@ -28765,7 +28768,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>1401117</v>
       </c>
@@ -28798,7 +28801,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>1401118</v>
       </c>
@@ -28831,7 +28834,7 @@
       </c>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1">
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>702101</v>
       </c>
@@ -28866,7 +28869,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24">
         <v>702102</v>
       </c>
@@ -28899,7 +28902,7 @@
       </c>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1">
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24">
         <v>801120</v>
       </c>
@@ -28934,7 +28937,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1">
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24">
         <v>801121</v>
       </c>
@@ -28969,7 +28972,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1">
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24">
         <v>801222</v>
       </c>
@@ -29004,7 +29007,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1">
+    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24">
         <v>1301099</v>
       </c>
@@ -29028,7 +29031,7 @@
       </c>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1">
+    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>1301100</v>
       </c>
@@ -29052,7 +29055,7 @@
       </c>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1">
+    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>1301101</v>
       </c>
@@ -29076,7 +29079,7 @@
       </c>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1">
+    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>1301102</v>
       </c>
@@ -29100,7 +29103,7 @@
       </c>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="1:11" ht="30" customHeight="1">
+    <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>1301103</v>
       </c>
@@ -29124,7 +29127,7 @@
       </c>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1">
+    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24">
         <v>1301104</v>
       </c>
@@ -29148,7 +29151,7 @@
       </c>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:11" ht="30" customHeight="1">
+    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24">
         <v>1301105</v>
       </c>
@@ -29172,7 +29175,7 @@
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:11" ht="30" customHeight="1">
+    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24">
         <v>1301106</v>
       </c>
@@ -29205,7 +29208,7 @@
       </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:11" ht="30" customHeight="1">
+    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24">
         <v>1301107</v>
       </c>
@@ -29229,7 +29232,7 @@
       </c>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:11" ht="30" customHeight="1">
+    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24">
         <v>1301108</v>
       </c>
@@ -29262,7 +29265,7 @@
       </c>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:11" ht="30" customHeight="1">
+    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24">
         <v>1301109</v>
       </c>
@@ -29295,7 +29298,7 @@
       </c>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="1:11" ht="30" customHeight="1">
+    <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24">
         <v>1301110</v>
       </c>
@@ -29328,7 +29331,7 @@
       </c>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="30" customHeight="1">
+    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24">
         <v>1301120</v>
       </c>
@@ -29361,7 +29364,7 @@
       </c>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" ht="30" customHeight="1">
+    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24">
         <v>1301201</v>
       </c>
@@ -29385,7 +29388,7 @@
       </c>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:11" ht="30" customHeight="1">
+    <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24">
         <v>1301202</v>
       </c>
@@ -29409,7 +29412,7 @@
       </c>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:11" ht="30" customHeight="1">
+    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24">
         <v>1301203</v>
       </c>
@@ -29442,7 +29445,7 @@
       </c>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" ht="30" customHeight="1">
+    <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24">
         <v>1301204</v>
       </c>
@@ -29466,7 +29469,7 @@
       </c>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" ht="30" customHeight="1">
+    <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24">
         <v>1301205</v>
       </c>
@@ -29490,7 +29493,7 @@
       </c>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" ht="30" customHeight="1">
+    <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24">
         <v>1301206</v>
       </c>
@@ -29514,7 +29517,7 @@
       </c>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" ht="30" customHeight="1">
+    <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24">
         <v>1301208</v>
       </c>
@@ -29547,7 +29550,7 @@
       </c>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" ht="30" customHeight="1">
+    <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24">
         <v>1301209</v>
       </c>
@@ -29580,7 +29583,7 @@
       </c>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="30" customHeight="1">
+    <row r="38" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24">
         <v>1301220</v>
       </c>
@@ -29604,7 +29607,7 @@
       </c>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" ht="30" customHeight="1">
+    <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24">
         <v>1301221</v>
       </c>
@@ -29628,7 +29631,7 @@
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" ht="30" customHeight="1">
+    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="24">
         <v>1301222</v>
       </c>
@@ -29659,7 +29662,7 @@
       </c>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" ht="30" customHeight="1">
+    <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24">
         <v>1301223</v>
       </c>
@@ -29683,7 +29686,7 @@
       </c>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" ht="30" customHeight="1">
+    <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24">
         <v>1301224</v>
       </c>
@@ -29718,7 +29721,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="30" customHeight="1">
+    <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24">
         <v>1301225</v>
       </c>
@@ -29742,7 +29745,7 @@
       </c>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" ht="30" customHeight="1">
+    <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24">
         <v>1301226</v>
       </c>
@@ -29766,7 +29769,7 @@
       </c>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" ht="30" customHeight="1">
+    <row r="45" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24">
         <v>1301227</v>
       </c>
@@ -29790,7 +29793,7 @@
       </c>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" ht="30" customHeight="1">
+    <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24">
         <v>1301255</v>
       </c>
@@ -29814,7 +29817,7 @@
       </c>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" ht="30" customHeight="1">
+    <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24">
         <v>1301256</v>
       </c>
@@ -29838,7 +29841,7 @@
       </c>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" ht="30" customHeight="1">
+    <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24">
         <v>1301260</v>
       </c>
@@ -29862,7 +29865,7 @@
       </c>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" ht="30" customHeight="1">
+    <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24">
         <v>1301265</v>
       </c>
@@ -29886,7 +29889,7 @@
       </c>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" ht="30" customHeight="1">
+    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="24">
         <v>1301266</v>
       </c>
@@ -29919,7 +29922,7 @@
       </c>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" ht="30" customHeight="1">
+    <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24">
         <v>1301270</v>
       </c>
@@ -29952,7 +29955,7 @@
       </c>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" ht="30" customHeight="1">
+    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="24">
         <v>1301271</v>
       </c>
@@ -29976,7 +29979,7 @@
       </c>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" ht="30" customHeight="1">
+    <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24">
         <v>1302311</v>
       </c>
@@ -30009,7 +30012,7 @@
       </c>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" ht="30" customHeight="1">
+    <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24">
         <v>1301302</v>
       </c>
@@ -30042,7 +30045,7 @@
       </c>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" ht="30" customHeight="1">
+    <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24">
         <v>1301303</v>
       </c>
@@ -30066,7 +30069,7 @@
       </c>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:11" ht="30" customHeight="1">
+    <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24">
         <v>1301304</v>
       </c>
@@ -30099,7 +30102,7 @@
       </c>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:11" ht="30" customHeight="1">
+    <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24">
         <v>1301305</v>
       </c>
@@ -30132,7 +30135,7 @@
       </c>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1">
+    <row r="58" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="24">
         <v>1301306</v>
       </c>
@@ -30164,7 +30167,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1">
+    <row r="59" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="24">
         <v>1301307</v>
       </c>
@@ -30196,7 +30199,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" customHeight="1">
+    <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="24">
         <v>1301310</v>
       </c>
@@ -30229,7 +30232,7 @@
       </c>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" ht="30" customHeight="1">
+    <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="24">
         <v>1301315</v>
       </c>
@@ -30262,7 +30265,7 @@
       </c>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" ht="30" customHeight="1">
+    <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="24">
         <v>1301320</v>
       </c>
@@ -30286,7 +30289,7 @@
       </c>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" ht="30" customHeight="1">
+    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24">
         <v>1301325</v>
       </c>
@@ -30310,7 +30313,7 @@
       </c>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" ht="30" customHeight="1">
+    <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24">
         <v>1301326</v>
       </c>
@@ -30343,7 +30346,7 @@
       </c>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:11" ht="30" customHeight="1">
+    <row r="65" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24">
         <v>1301327</v>
       </c>
@@ -30367,7 +30370,7 @@
       </c>
       <c r="K65" s="24"/>
     </row>
-    <row r="66" spans="1:11" ht="30" customHeight="1">
+    <row r="66" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24">
         <v>1301330</v>
       </c>
@@ -30391,7 +30394,7 @@
       </c>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:11" ht="30" customHeight="1">
+    <row r="67" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="24">
         <v>1301331</v>
       </c>
@@ -30415,7 +30418,7 @@
       </c>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:11" ht="30" customHeight="1">
+    <row r="68" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="24">
         <v>1301341</v>
       </c>
@@ -30448,7 +30451,7 @@
       </c>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1">
+    <row r="69" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="24">
         <v>1301368</v>
       </c>
@@ -30471,7 +30474,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" customHeight="1">
+    <row r="70" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="24">
         <v>1301369</v>
       </c>
@@ -30504,7 +30507,7 @@
       </c>
       <c r="K70" s="24"/>
     </row>
-    <row r="71" spans="1:11" ht="30" customHeight="1">
+    <row r="71" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="24">
         <v>1301371</v>
       </c>
@@ -30535,7 +30538,7 @@
       <c r="J71" s="24"/>
       <c r="K71" s="24"/>
     </row>
-    <row r="72" spans="1:11" ht="30" customHeight="1">
+    <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24">
         <v>1301372</v>
       </c>
@@ -30559,7 +30562,7 @@
       </c>
       <c r="K72" s="24"/>
     </row>
-    <row r="73" spans="1:11" ht="30" customHeight="1">
+    <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24">
         <v>1301392</v>
       </c>
@@ -30592,7 +30595,7 @@
       </c>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="30" customHeight="1">
+    <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24">
         <v>1301399</v>
       </c>
@@ -30616,7 +30619,7 @@
       </c>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="30" customHeight="1">
+    <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24">
         <v>1301410</v>
       </c>
@@ -30640,7 +30643,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="30" customHeight="1">
+    <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="24">
         <v>1301415</v>
       </c>
@@ -30673,7 +30676,7 @@
       </c>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="30" customHeight="1">
+    <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="24">
         <v>1301420</v>
       </c>
@@ -30697,7 +30700,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="30" customHeight="1">
+    <row r="78" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="24">
         <v>1301425</v>
       </c>
@@ -30730,7 +30733,7 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="30" customHeight="1">
+    <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="24">
         <v>1301440</v>
       </c>
@@ -30763,7 +30766,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="30" customHeight="1">
+    <row r="80" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="24">
         <v>1301455</v>
       </c>
@@ -30796,7 +30799,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:11" ht="30" customHeight="1">
+    <row r="81" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24">
         <v>1301460</v>
       </c>
@@ -30820,7 +30823,7 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="30" customHeight="1">
+    <row r="82" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24">
         <v>1301461</v>
       </c>
@@ -30853,7 +30856,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="30" customHeight="1">
+    <row r="83" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24">
         <v>1301486</v>
       </c>
@@ -30877,7 +30880,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="30" customHeight="1">
+    <row r="84" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24">
         <v>1301489</v>
       </c>
@@ -30901,7 +30904,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="30" customHeight="1">
+    <row r="85" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="24">
         <v>1301490</v>
       </c>
@@ -30934,7 +30937,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="30" customHeight="1">
+    <row r="86" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="24">
         <v>1301491</v>
       </c>
@@ -30967,7 +30970,7 @@
       </c>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="30" customHeight="1">
+    <row r="87" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="24">
         <v>1301492</v>
       </c>
@@ -31000,7 +31003,7 @@
       </c>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="30" customHeight="1">
+    <row r="88" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="24">
         <v>1301900</v>
       </c>
@@ -31024,7 +31027,7 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="30" customHeight="1">
+    <row r="89" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24">
         <v>1301901</v>
       </c>
@@ -31048,7 +31051,7 @@
       </c>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="30" customHeight="1">
+    <row r="90" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24">
         <v>1302281</v>
       </c>
@@ -31081,7 +31084,7 @@
       </c>
       <c r="K90" s="24"/>
     </row>
-    <row r="91" spans="1:11" ht="30" customHeight="1">
+    <row r="91" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24">
         <v>1302369</v>
       </c>
@@ -31114,7 +31117,7 @@
       </c>
       <c r="K91" s="24"/>
     </row>
-    <row r="92" spans="1:11" ht="30" customHeight="1">
+    <row r="92" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24">
         <v>1302380</v>
       </c>
@@ -31138,7 +31141,7 @@
       </c>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="30" customHeight="1">
+    <row r="93" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24">
         <v>1302381</v>
       </c>
@@ -31162,7 +31165,7 @@
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="30" customHeight="1">
+    <row r="94" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="24">
         <v>1302382</v>
       </c>
@@ -31195,7 +31198,7 @@
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="30" customHeight="1">
+    <row r="95" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="24">
         <v>1302383</v>
       </c>
@@ -31228,7 +31231,7 @@
       </c>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="30" customHeight="1">
+    <row r="96" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="24">
         <v>1302384</v>
       </c>
@@ -31261,7 +31264,7 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="1:11" ht="30" customHeight="1">
+    <row r="97" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="24">
         <v>1302385</v>
       </c>
@@ -31285,7 +31288,7 @@
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="1:11" ht="30" customHeight="1">
+    <row r="98" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="24">
         <v>1302386</v>
       </c>
@@ -31309,7 +31312,7 @@
       </c>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="1:11" ht="30" customHeight="1">
+    <row r="99" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24">
         <v>1302387</v>
       </c>
@@ -31342,7 +31345,7 @@
       </c>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="1:11" ht="30" customHeight="1">
+    <row r="100" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="24">
         <v>1302388</v>
       </c>
@@ -31375,7 +31378,7 @@
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="1:11" ht="30" customHeight="1">
+    <row r="101" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24">
         <v>1302392</v>
       </c>
@@ -31408,7 +31411,7 @@
       </c>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="1:11" ht="30" customHeight="1">
+    <row r="102" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24">
         <v>1302410</v>
       </c>
@@ -31432,7 +31435,7 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="1:11" ht="30" customHeight="1">
+    <row r="103" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="24">
         <v>1302430</v>
       </c>
@@ -31456,7 +31459,7 @@
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="1:11" ht="30" customHeight="1">
+    <row r="104" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="24">
         <v>1302433</v>
       </c>
@@ -31480,7 +31483,7 @@
       </c>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="1:11" ht="30" customHeight="1">
+    <row r="105" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="24">
         <v>1302440</v>
       </c>
@@ -31504,7 +31507,7 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="1:11" ht="30" customHeight="1">
+    <row r="106" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="24">
         <v>1302441</v>
       </c>
@@ -31537,7 +31540,7 @@
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="1:11" ht="30" customHeight="1">
+    <row r="107" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="24">
         <v>1302450</v>
       </c>
@@ -31561,7 +31564,7 @@
       </c>
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="1:11" ht="30" customHeight="1">
+    <row r="108" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24">
         <v>1302452</v>
       </c>
@@ -31594,7 +31597,7 @@
       </c>
       <c r="K108" s="24"/>
     </row>
-    <row r="109" spans="1:11" ht="30" customHeight="1">
+    <row r="109" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24">
         <v>1302478</v>
       </c>
@@ -31627,7 +31630,7 @@
       </c>
       <c r="K109" s="24"/>
     </row>
-    <row r="110" spans="1:11" ht="30" customHeight="1">
+    <row r="110" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="24">
         <v>1302480</v>
       </c>
@@ -31651,7 +31654,7 @@
       </c>
       <c r="K110" s="24"/>
     </row>
-    <row r="111" spans="1:11" ht="30" customHeight="1">
+    <row r="111" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24">
         <v>1302481</v>
       </c>
@@ -31684,7 +31687,7 @@
       </c>
       <c r="K111" s="24"/>
     </row>
-    <row r="112" spans="1:11" ht="30" customHeight="1">
+    <row r="112" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="24">
         <v>1302482</v>
       </c>
@@ -31708,7 +31711,7 @@
       </c>
       <c r="K112" s="24"/>
     </row>
-    <row r="113" spans="1:11" ht="30" customHeight="1">
+    <row r="113" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="24">
         <v>1302483</v>
       </c>
@@ -31741,7 +31744,7 @@
       </c>
       <c r="K113" s="24"/>
     </row>
-    <row r="114" spans="1:11" ht="30" customHeight="1">
+    <row r="114" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="24">
         <v>1302484</v>
       </c>
@@ -31774,7 +31777,7 @@
       </c>
       <c r="K114" s="24"/>
     </row>
-    <row r="115" spans="1:11" ht="30" customHeight="1">
+    <row r="115" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="24">
         <v>1302485</v>
       </c>
@@ -31807,7 +31810,7 @@
       </c>
       <c r="K115" s="24"/>
     </row>
-    <row r="116" spans="1:11" ht="30" customHeight="1">
+    <row r="116" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="24">
         <v>1302487</v>
       </c>
@@ -31831,7 +31834,7 @@
       </c>
       <c r="K116" s="24"/>
     </row>
-    <row r="117" spans="1:11" ht="30" customHeight="1">
+    <row r="117" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="24">
         <v>1302488</v>
       </c>
@@ -31864,7 +31867,7 @@
       </c>
       <c r="K117" s="24"/>
     </row>
-    <row r="118" spans="1:11" ht="30" customHeight="1">
+    <row r="118" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="24">
         <v>1302489</v>
       </c>
@@ -31888,7 +31891,7 @@
       </c>
       <c r="K118" s="24"/>
     </row>
-    <row r="119" spans="1:11" ht="30" customHeight="1">
+    <row r="119" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="24">
         <v>1302490</v>
       </c>
@@ -31921,7 +31924,7 @@
       </c>
       <c r="K119" s="24"/>
     </row>
-    <row r="120" spans="1:11" ht="30" customHeight="1">
+    <row r="120" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="24">
         <v>1302491</v>
       </c>
@@ -31954,7 +31957,7 @@
       </c>
       <c r="K120" s="24"/>
     </row>
-    <row r="121" spans="1:11" ht="30" customHeight="1">
+    <row r="121" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="24">
         <v>1302492</v>
       </c>
@@ -31987,7 +31990,7 @@
       </c>
       <c r="K121" s="24"/>
     </row>
-    <row r="122" spans="1:11" ht="30" customHeight="1">
+    <row r="122" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="24">
         <v>1302493</v>
       </c>
@@ -32020,7 +32023,7 @@
       </c>
       <c r="K122" s="24"/>
     </row>
-    <row r="123" spans="1:11" ht="30" customHeight="1">
+    <row r="123" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="24">
         <v>1302494</v>
       </c>
@@ -32053,7 +32056,7 @@
       </c>
       <c r="K123" s="24"/>
     </row>
-    <row r="124" spans="1:11" ht="30" customHeight="1">
+    <row r="124" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="24">
         <v>1302900</v>
       </c>
@@ -32077,7 +32080,7 @@
       </c>
       <c r="K124" s="24"/>
     </row>
-    <row r="125" spans="1:11" ht="30" customHeight="1">
+    <row r="125" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="24">
         <v>1303120</v>
       </c>
@@ -32110,7 +32113,7 @@
       </c>
       <c r="K125" s="24"/>
     </row>
-    <row r="126" spans="1:11" ht="30" customHeight="1">
+    <row r="126" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="24">
         <v>1303235</v>
       </c>
@@ -32134,7 +32137,7 @@
       </c>
       <c r="K126" s="24"/>
     </row>
-    <row r="127" spans="1:11" ht="30" customHeight="1">
+    <row r="127" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="24">
         <v>1303236</v>
       </c>
@@ -32167,7 +32170,7 @@
       </c>
       <c r="K127" s="24"/>
     </row>
-    <row r="128" spans="1:11" ht="30" customHeight="1">
+    <row r="128" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="24">
         <v>1303237</v>
       </c>
@@ -32200,7 +32203,7 @@
       </c>
       <c r="K128" s="24"/>
     </row>
-    <row r="129" spans="1:11" ht="30" customHeight="1">
+    <row r="129" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="24">
         <v>1303240</v>
       </c>
@@ -32224,7 +32227,7 @@
       </c>
       <c r="K129" s="24"/>
     </row>
-    <row r="130" spans="1:11" ht="30" customHeight="1">
+    <row r="130" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="24">
         <v>1303244</v>
       </c>
@@ -32248,7 +32251,7 @@
       </c>
       <c r="K130" s="24"/>
     </row>
-    <row r="131" spans="1:11" ht="30" customHeight="1">
+    <row r="131" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="24">
         <v>1303245</v>
       </c>
@@ -32272,7 +32275,7 @@
       </c>
       <c r="K131" s="24"/>
     </row>
-    <row r="132" spans="1:11" ht="30" customHeight="1">
+    <row r="132" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="24">
         <v>1303261</v>
       </c>
@@ -32296,7 +32299,7 @@
       </c>
       <c r="K132" s="24"/>
     </row>
-    <row r="133" spans="1:11" ht="30" customHeight="1">
+    <row r="133" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="24">
         <v>1303265</v>
       </c>
@@ -32329,7 +32332,7 @@
       </c>
       <c r="K133" s="24"/>
     </row>
-    <row r="134" spans="1:11" ht="30" customHeight="1">
+    <row r="134" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="24">
         <v>1303320</v>
       </c>
@@ -32362,7 +32365,7 @@
       </c>
       <c r="K134" s="24"/>
     </row>
-    <row r="135" spans="1:11" ht="30" customHeight="1">
+    <row r="135" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="24">
         <v>1303330</v>
       </c>
@@ -32386,7 +32389,7 @@
       </c>
       <c r="K135" s="24"/>
     </row>
-    <row r="136" spans="1:11" ht="30" customHeight="1">
+    <row r="136" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="24">
         <v>1303331</v>
       </c>
@@ -32410,7 +32413,7 @@
       </c>
       <c r="K136" s="24"/>
     </row>
-    <row r="137" spans="1:11" ht="30" customHeight="1">
+    <row r="137" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="24">
         <v>1303334</v>
       </c>
@@ -32443,7 +32446,7 @@
       </c>
       <c r="K137" s="24"/>
     </row>
-    <row r="138" spans="1:11" ht="30" customHeight="1">
+    <row r="138" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="24">
         <v>1303335</v>
       </c>
@@ -32467,7 +32470,7 @@
       </c>
       <c r="K138" s="24"/>
     </row>
-    <row r="139" spans="1:11" ht="30" customHeight="1">
+    <row r="139" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="24">
         <v>1303336</v>
       </c>
@@ -32491,7 +32494,7 @@
       </c>
       <c r="K139" s="24"/>
     </row>
-    <row r="140" spans="1:11" ht="30" customHeight="1">
+    <row r="140" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="24">
         <v>1303337</v>
       </c>
@@ -32524,7 +32527,7 @@
       </c>
       <c r="K140" s="24"/>
     </row>
-    <row r="141" spans="1:11" ht="30" customHeight="1">
+    <row r="141" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="24">
         <v>1303338</v>
       </c>
@@ -32557,7 +32560,7 @@
       </c>
       <c r="K141" s="24"/>
     </row>
-    <row r="142" spans="1:11" ht="30" customHeight="1">
+    <row r="142" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="24">
         <v>1303339</v>
       </c>
@@ -32590,7 +32593,7 @@
       </c>
       <c r="K142" s="24"/>
     </row>
-    <row r="143" spans="1:11" ht="30" customHeight="1">
+    <row r="143" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="24">
         <v>1303340</v>
       </c>
@@ -32614,7 +32617,7 @@
       </c>
       <c r="K143" s="24"/>
     </row>
-    <row r="144" spans="1:11" ht="30" customHeight="1">
+    <row r="144" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="24">
         <v>1303341</v>
       </c>
@@ -32638,7 +32641,7 @@
       </c>
       <c r="K144" s="24"/>
     </row>
-    <row r="145" spans="1:11" ht="30" customHeight="1">
+    <row r="145" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="24">
         <v>1303342</v>
       </c>
@@ -32671,7 +32674,7 @@
       </c>
       <c r="K145" s="24"/>
     </row>
-    <row r="146" spans="1:11" ht="30" customHeight="1">
+    <row r="146" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="24">
         <v>1303343</v>
       </c>
@@ -32704,7 +32707,7 @@
       </c>
       <c r="K146" s="24"/>
     </row>
-    <row r="147" spans="1:11" ht="30" customHeight="1">
+    <row r="147" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="24">
         <v>1303344</v>
       </c>
@@ -32728,7 +32731,7 @@
       </c>
       <c r="K147" s="24"/>
     </row>
-    <row r="148" spans="1:11" ht="30" customHeight="1">
+    <row r="148" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="24">
         <v>1303345</v>
       </c>
@@ -32752,7 +32755,7 @@
       </c>
       <c r="K148" s="24"/>
     </row>
-    <row r="149" spans="1:11" ht="30" customHeight="1">
+    <row r="149" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="24">
         <v>1303346</v>
       </c>
@@ -32776,7 +32779,7 @@
       </c>
       <c r="K149" s="24"/>
     </row>
-    <row r="150" spans="1:11" ht="30" customHeight="1">
+    <row r="150" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="24">
         <v>1303347</v>
       </c>
@@ -32800,7 +32803,7 @@
       </c>
       <c r="K150" s="24"/>
     </row>
-    <row r="151" spans="1:11" ht="30" customHeight="1">
+    <row r="151" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="24">
         <v>1303348</v>
       </c>
@@ -32824,7 +32827,7 @@
       </c>
       <c r="K151" s="24"/>
     </row>
-    <row r="152" spans="1:11" ht="30" customHeight="1">
+    <row r="152" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="24">
         <v>1303349</v>
       </c>
@@ -32848,7 +32851,7 @@
       </c>
       <c r="K152" s="24"/>
     </row>
-    <row r="153" spans="1:11" ht="30" customHeight="1">
+    <row r="153" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="24">
         <v>1303350</v>
       </c>
@@ -32872,7 +32875,7 @@
       </c>
       <c r="K153" s="24"/>
     </row>
-    <row r="154" spans="1:11" ht="30" customHeight="1">
+    <row r="154" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="24">
         <v>1303354</v>
       </c>
@@ -32905,7 +32908,7 @@
       </c>
       <c r="K154" s="24"/>
     </row>
-    <row r="155" spans="1:11" ht="30" customHeight="1">
+    <row r="155" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="24">
         <v>1303360</v>
       </c>
@@ -32938,7 +32941,7 @@
       </c>
       <c r="K155" s="24"/>
     </row>
-    <row r="156" spans="1:11" ht="30" customHeight="1">
+    <row r="156" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="24">
         <v>1303361</v>
       </c>
@@ -32962,7 +32965,7 @@
       </c>
       <c r="K156" s="24"/>
     </row>
-    <row r="157" spans="1:11" ht="30" customHeight="1">
+    <row r="157" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="24">
         <v>1303369</v>
       </c>
@@ -32995,7 +32998,7 @@
       </c>
       <c r="K157" s="24"/>
     </row>
-    <row r="158" spans="1:11" ht="30" customHeight="1">
+    <row r="158" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="24">
         <v>1303370</v>
       </c>
@@ -33019,7 +33022,7 @@
       </c>
       <c r="K158" s="24"/>
     </row>
-    <row r="159" spans="1:11" ht="30" customHeight="1">
+    <row r="159" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="24">
         <v>1303380</v>
       </c>
@@ -33043,7 +33046,7 @@
       </c>
       <c r="K159" s="24"/>
     </row>
-    <row r="160" spans="1:11" ht="30" customHeight="1">
+    <row r="160" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="24">
         <v>1303381</v>
       </c>
@@ -33067,7 +33070,7 @@
       </c>
       <c r="K160" s="24"/>
     </row>
-    <row r="161" spans="1:11" ht="30" customHeight="1">
+    <row r="161" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="24">
         <v>1303382</v>
       </c>
@@ -33091,7 +33094,7 @@
       </c>
       <c r="K161" s="24"/>
     </row>
-    <row r="162" spans="1:11" ht="30" customHeight="1">
+    <row r="162" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="24">
         <v>1303383</v>
       </c>
@@ -33115,7 +33118,7 @@
       </c>
       <c r="K162" s="24"/>
     </row>
-    <row r="163" spans="1:11" ht="30" customHeight="1">
+    <row r="163" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="24">
         <v>1303385</v>
       </c>
@@ -33139,7 +33142,7 @@
       </c>
       <c r="K163" s="24"/>
     </row>
-    <row r="164" spans="1:11" ht="30" customHeight="1">
+    <row r="164" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="24">
         <v>1303386</v>
       </c>
@@ -33172,7 +33175,7 @@
       </c>
       <c r="K164" s="24"/>
     </row>
-    <row r="165" spans="1:11" ht="30" customHeight="1">
+    <row r="165" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="24">
         <v>1303387</v>
       </c>
@@ -33205,7 +33208,7 @@
       </c>
       <c r="K165" s="24"/>
     </row>
-    <row r="166" spans="1:11" ht="30" customHeight="1">
+    <row r="166" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="24">
         <v>1303392</v>
       </c>
@@ -33238,7 +33241,7 @@
       </c>
       <c r="K166" s="24"/>
     </row>
-    <row r="167" spans="1:11" ht="30" customHeight="1">
+    <row r="167" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="24">
         <v>1303410</v>
       </c>
@@ -33260,7 +33263,7 @@
       </c>
       <c r="K167" s="24"/>
     </row>
-    <row r="168" spans="1:11" ht="30" customHeight="1">
+    <row r="168" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="24">
         <v>1303411</v>
       </c>
@@ -33293,7 +33296,7 @@
       </c>
       <c r="K168" s="24"/>
     </row>
-    <row r="169" spans="1:11" ht="30" customHeight="1">
+    <row r="169" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="24">
         <v>1303430</v>
       </c>
@@ -33317,7 +33320,7 @@
       </c>
       <c r="K169" s="24"/>
     </row>
-    <row r="170" spans="1:11" ht="30" customHeight="1">
+    <row r="170" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="24">
         <v>1303431</v>
       </c>
@@ -33341,7 +33344,7 @@
       </c>
       <c r="K170" s="24"/>
     </row>
-    <row r="171" spans="1:11" ht="30" customHeight="1">
+    <row r="171" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="24">
         <v>1303434</v>
       </c>
@@ -33374,7 +33377,7 @@
       </c>
       <c r="K171" s="24"/>
     </row>
-    <row r="172" spans="1:11" ht="30" customHeight="1">
+    <row r="172" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="24">
         <v>1303437</v>
       </c>
@@ -33398,7 +33401,7 @@
       </c>
       <c r="K172" s="24"/>
     </row>
-    <row r="173" spans="1:11" ht="30" customHeight="1">
+    <row r="173" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="24">
         <v>1303438</v>
       </c>
@@ -33422,7 +33425,7 @@
       </c>
       <c r="K173" s="24"/>
     </row>
-    <row r="174" spans="1:11" ht="30" customHeight="1">
+    <row r="174" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="24">
         <v>1303440</v>
       </c>
@@ -33446,7 +33449,7 @@
       </c>
       <c r="K174" s="24"/>
     </row>
-    <row r="175" spans="1:11" ht="30" customHeight="1">
+    <row r="175" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="24">
         <v>1303441</v>
       </c>
@@ -33470,7 +33473,7 @@
       </c>
       <c r="K175" s="24"/>
     </row>
-    <row r="176" spans="1:11" ht="30" customHeight="1">
+    <row r="176" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="24">
         <v>1303442</v>
       </c>
@@ -33494,7 +33497,7 @@
       </c>
       <c r="K176" s="24"/>
     </row>
-    <row r="177" spans="1:11" ht="30" customHeight="1">
+    <row r="177" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="24">
         <v>1303443</v>
       </c>
@@ -33518,7 +33521,7 @@
       </c>
       <c r="K177" s="24"/>
     </row>
-    <row r="178" spans="1:11" ht="30" customHeight="1">
+    <row r="178" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="24">
         <v>1303444</v>
       </c>
@@ -33542,7 +33545,7 @@
       </c>
       <c r="K178" s="24"/>
     </row>
-    <row r="179" spans="1:11" ht="30" customHeight="1">
+    <row r="179" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="24">
         <v>1303445</v>
       </c>
@@ -33566,7 +33569,7 @@
       </c>
       <c r="K179" s="24"/>
     </row>
-    <row r="180" spans="1:11" ht="30" customHeight="1">
+    <row r="180" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="24">
         <v>1303447</v>
       </c>
@@ -33599,7 +33602,7 @@
       </c>
       <c r="K180" s="24"/>
     </row>
-    <row r="181" spans="1:11" ht="30" customHeight="1">
+    <row r="181" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="24">
         <v>1303448</v>
       </c>
@@ -33632,7 +33635,7 @@
       </c>
       <c r="K181" s="24"/>
     </row>
-    <row r="182" spans="1:11" ht="30" customHeight="1">
+    <row r="182" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="24">
         <v>1303449</v>
       </c>
@@ -33656,7 +33659,7 @@
       </c>
       <c r="K182" s="24"/>
     </row>
-    <row r="183" spans="1:11" ht="30" customHeight="1">
+    <row r="183" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="24">
         <v>1303450</v>
       </c>
@@ -33689,7 +33692,7 @@
       </c>
       <c r="K183" s="24"/>
     </row>
-    <row r="184" spans="1:11" ht="30" customHeight="1">
+    <row r="184" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="24">
         <v>1303461</v>
       </c>
@@ -33713,7 +33716,7 @@
       </c>
       <c r="K184" s="24"/>
     </row>
-    <row r="185" spans="1:11" ht="30" customHeight="1">
+    <row r="185" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="24">
         <v>1303480</v>
       </c>
@@ -33737,7 +33740,7 @@
       </c>
       <c r="K185" s="24"/>
     </row>
-    <row r="186" spans="1:11" ht="30" customHeight="1">
+    <row r="186" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="24">
         <v>1303486</v>
       </c>
@@ -33761,7 +33764,7 @@
       </c>
       <c r="K186" s="24"/>
     </row>
-    <row r="187" spans="1:11" ht="30" customHeight="1">
+    <row r="187" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="24">
         <v>1303489</v>
       </c>
@@ -33785,7 +33788,7 @@
       </c>
       <c r="K187" s="24"/>
     </row>
-    <row r="188" spans="1:11" ht="30" customHeight="1">
+    <row r="188" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="24">
         <v>1303490</v>
       </c>
@@ -33818,7 +33821,7 @@
       </c>
       <c r="K188" s="24"/>
     </row>
-    <row r="189" spans="1:11" ht="30" customHeight="1">
+    <row r="189" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="24">
         <v>1303491</v>
       </c>
@@ -33851,7 +33854,7 @@
       </c>
       <c r="K189" s="24"/>
     </row>
-    <row r="190" spans="1:11" ht="30" customHeight="1">
+    <row r="190" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="24">
         <v>1303492</v>
       </c>
@@ -33884,7 +33887,7 @@
       </c>
       <c r="K190" s="24"/>
     </row>
-    <row r="191" spans="1:11" ht="30" customHeight="1">
+    <row r="191" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="24">
         <v>1303900</v>
       </c>
@@ -33908,7 +33911,7 @@
       </c>
       <c r="K191" s="24"/>
     </row>
-    <row r="192" spans="1:11" ht="30" customHeight="1">
+    <row r="192" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="24">
         <v>1303901</v>
       </c>
@@ -33932,7 +33935,7 @@
       </c>
       <c r="K192" s="24"/>
     </row>
-    <row r="193" spans="1:11" ht="30" customHeight="1">
+    <row r="193" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="24">
         <v>1303998</v>
       </c>
@@ -33956,7 +33959,7 @@
       </c>
       <c r="K193" s="24"/>
     </row>
-    <row r="194" spans="1:11" ht="30" customHeight="1">
+    <row r="194" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="24">
         <v>1303999</v>
       </c>
@@ -33980,7 +33983,7 @@
       </c>
       <c r="K194" s="24"/>
     </row>
-    <row r="195" spans="1:11" ht="30" customHeight="1">
+    <row r="195" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="24">
         <v>1304130</v>
       </c>
@@ -34013,7 +34016,7 @@
       </c>
       <c r="K195" s="24"/>
     </row>
-    <row r="196" spans="1:11" ht="30" customHeight="1">
+    <row r="196" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="24">
         <v>1304230</v>
       </c>
@@ -34046,7 +34049,7 @@
       </c>
       <c r="K196" s="24"/>
     </row>
-    <row r="197" spans="1:11" ht="30" customHeight="1">
+    <row r="197" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="24">
         <v>1304231</v>
       </c>
@@ -34079,7 +34082,7 @@
       </c>
       <c r="K197" s="24"/>
     </row>
-    <row r="198" spans="1:11" ht="30" customHeight="1">
+    <row r="198" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="24">
         <v>1304232</v>
       </c>
@@ -34112,7 +34115,7 @@
       </c>
       <c r="K198" s="24"/>
     </row>
-    <row r="199" spans="1:11" ht="30" customHeight="1">
+    <row r="199" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="24">
         <v>1304233</v>
       </c>
@@ -34145,7 +34148,7 @@
       </c>
       <c r="K199" s="24"/>
     </row>
-    <row r="200" spans="1:11" ht="30" customHeight="1">
+    <row r="200" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="24">
         <v>1304310</v>
       </c>
@@ -34178,7 +34181,7 @@
       </c>
       <c r="K200" s="24"/>
     </row>
-    <row r="201" spans="1:11" ht="30" customHeight="1">
+    <row r="201" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="24">
         <v>1304325</v>
       </c>
@@ -34202,7 +34205,7 @@
       </c>
       <c r="K201" s="24"/>
     </row>
-    <row r="202" spans="1:11" ht="30" customHeight="1">
+    <row r="202" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="24">
         <v>1304326</v>
       </c>
@@ -34235,7 +34238,7 @@
       </c>
       <c r="K202" s="24"/>
     </row>
-    <row r="203" spans="1:11" ht="30" customHeight="1">
+    <row r="203" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="24">
         <v>1304327</v>
       </c>
@@ -34268,7 +34271,7 @@
       </c>
       <c r="K203" s="24"/>
     </row>
-    <row r="204" spans="1:11" ht="30" customHeight="1">
+    <row r="204" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="24">
         <v>1304330</v>
       </c>
@@ -34292,7 +34295,7 @@
       </c>
       <c r="K204" s="24"/>
     </row>
-    <row r="205" spans="1:11" ht="30" customHeight="1">
+    <row r="205" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="24">
         <v>1304331</v>
       </c>
@@ -34316,7 +34319,7 @@
       </c>
       <c r="K205" s="24"/>
     </row>
-    <row r="206" spans="1:11" ht="30" customHeight="1">
+    <row r="206" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="24">
         <v>1304332</v>
       </c>
@@ -34349,7 +34352,7 @@
       </c>
       <c r="K206" s="24"/>
     </row>
-    <row r="207" spans="1:11" ht="30" customHeight="1">
+    <row r="207" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="24">
         <v>1304333</v>
       </c>
@@ -34382,7 +34385,7 @@
       </c>
       <c r="K207" s="24"/>
     </row>
-    <row r="208" spans="1:11" ht="30" customHeight="1">
+    <row r="208" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="24">
         <v>1304334</v>
       </c>
@@ -34415,7 +34418,7 @@
       </c>
       <c r="K208" s="24"/>
     </row>
-    <row r="209" spans="1:11" ht="30" customHeight="1">
+    <row r="209" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="24">
         <v>1304335</v>
       </c>
@@ -34439,7 +34442,7 @@
       </c>
       <c r="K209" s="24"/>
     </row>
-    <row r="210" spans="1:11" ht="30" customHeight="1">
+    <row r="210" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="24">
         <v>1304336</v>
       </c>
@@ -34472,7 +34475,7 @@
       </c>
       <c r="K210" s="24"/>
     </row>
-    <row r="211" spans="1:11" ht="30" customHeight="1">
+    <row r="211" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="24">
         <v>1304337</v>
       </c>
@@ -34496,7 +34499,7 @@
       </c>
       <c r="K211" s="24"/>
     </row>
-    <row r="212" spans="1:11" ht="30" customHeight="1">
+    <row r="212" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="24">
         <v>1304338</v>
       </c>
@@ -34529,7 +34532,7 @@
       </c>
       <c r="K212" s="24"/>
     </row>
-    <row r="213" spans="1:11" ht="30" customHeight="1">
+    <row r="213" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="24">
         <v>1304345</v>
       </c>
@@ -34553,7 +34556,7 @@
       </c>
       <c r="K213" s="24"/>
     </row>
-    <row r="214" spans="1:11" ht="30" customHeight="1">
+    <row r="214" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="24">
         <v>1304350</v>
       </c>
@@ -34586,7 +34589,7 @@
       </c>
       <c r="K214" s="24"/>
     </row>
-    <row r="215" spans="1:11" ht="30" customHeight="1">
+    <row r="215" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="24">
         <v>1304355</v>
       </c>
@@ -34610,7 +34613,7 @@
       </c>
       <c r="K215" s="24"/>
     </row>
-    <row r="216" spans="1:11" ht="30" customHeight="1">
+    <row r="216" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="24">
         <v>1304369</v>
       </c>
@@ -34643,7 +34646,7 @@
       </c>
       <c r="K216" s="24"/>
     </row>
-    <row r="217" spans="1:11" ht="30" customHeight="1">
+    <row r="217" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="24">
         <v>1304392</v>
       </c>
@@ -34676,7 +34679,7 @@
       </c>
       <c r="K217" s="24"/>
     </row>
-    <row r="218" spans="1:11" ht="30" customHeight="1">
+    <row r="218" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="24">
         <v>1304410</v>
       </c>
@@ -34700,7 +34703,7 @@
       </c>
       <c r="K218" s="24"/>
     </row>
-    <row r="219" spans="1:11" ht="30" customHeight="1">
+    <row r="219" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="24">
         <v>1304430</v>
       </c>
@@ -34733,7 +34736,7 @@
       </c>
       <c r="K219" s="24"/>
     </row>
-    <row r="220" spans="1:11" ht="30" customHeight="1">
+    <row r="220" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="24">
         <v>1304431</v>
       </c>
@@ -34757,7 +34760,7 @@
       </c>
       <c r="K220" s="24"/>
     </row>
-    <row r="221" spans="1:11" ht="30" customHeight="1">
+    <row r="221" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="24">
         <v>1304432</v>
       </c>
@@ -34790,7 +34793,7 @@
       </c>
       <c r="K221" s="24"/>
     </row>
-    <row r="222" spans="1:11" ht="30" customHeight="1">
+    <row r="222" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="24">
         <v>1304433</v>
       </c>
@@ -34823,7 +34826,7 @@
       </c>
       <c r="K222" s="24"/>
     </row>
-    <row r="223" spans="1:11" ht="30" customHeight="1">
+    <row r="223" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="24">
         <v>1304433</v>
       </c>
@@ -34847,7 +34850,7 @@
       </c>
       <c r="K223" s="24"/>
     </row>
-    <row r="224" spans="1:11" ht="30" customHeight="1">
+    <row r="224" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="24">
         <v>1304434</v>
       </c>
@@ -34880,7 +34883,7 @@
       </c>
       <c r="K224" s="24"/>
     </row>
-    <row r="225" spans="1:11" ht="30" customHeight="1">
+    <row r="225" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="24">
         <v>1304435</v>
       </c>
@@ -34913,7 +34916,7 @@
       </c>
       <c r="K225" s="24"/>
     </row>
-    <row r="226" spans="1:11" ht="30" customHeight="1">
+    <row r="226" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="24">
         <v>1304436</v>
       </c>
@@ -34937,7 +34940,7 @@
       </c>
       <c r="K226" s="24"/>
     </row>
-    <row r="227" spans="1:11" ht="30" customHeight="1">
+    <row r="227" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="24">
         <v>1304437</v>
       </c>
@@ -34970,7 +34973,7 @@
       </c>
       <c r="K227" s="24"/>
     </row>
-    <row r="228" spans="1:11" ht="30" customHeight="1">
+    <row r="228" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="24">
         <v>1304438</v>
       </c>
@@ -34994,7 +34997,7 @@
       </c>
       <c r="K228" s="24"/>
     </row>
-    <row r="229" spans="1:11" ht="30" customHeight="1">
+    <row r="229" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="24">
         <v>1304439</v>
       </c>
@@ -35018,7 +35021,7 @@
       </c>
       <c r="K229" s="24"/>
     </row>
-    <row r="230" spans="1:11" ht="30" customHeight="1">
+    <row r="230" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="24">
         <v>1304440</v>
       </c>
@@ -35051,7 +35054,7 @@
       </c>
       <c r="K230" s="24"/>
     </row>
-    <row r="231" spans="1:11" ht="30" customHeight="1">
+    <row r="231" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="24">
         <v>1304442</v>
       </c>
@@ -35075,7 +35078,7 @@
       </c>
       <c r="K231" s="24"/>
     </row>
-    <row r="232" spans="1:11" ht="30" customHeight="1">
+    <row r="232" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="24">
         <v>1304443</v>
       </c>
@@ -35108,7 +35111,7 @@
       </c>
       <c r="K232" s="24"/>
     </row>
-    <row r="233" spans="1:11" ht="30" customHeight="1">
+    <row r="233" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="24">
         <v>1304444</v>
       </c>
@@ -35132,7 +35135,7 @@
       </c>
       <c r="K233" s="24"/>
     </row>
-    <row r="234" spans="1:11" ht="30" customHeight="1">
+    <row r="234" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="24">
         <v>1304445</v>
       </c>
@@ -35165,7 +35168,7 @@
       </c>
       <c r="K234" s="24"/>
     </row>
-    <row r="235" spans="1:11" ht="30" customHeight="1">
+    <row r="235" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="24">
         <v>1304489</v>
       </c>
@@ -35189,7 +35192,7 @@
       </c>
       <c r="K235" s="24"/>
     </row>
-    <row r="236" spans="1:11" ht="30" customHeight="1">
+    <row r="236" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="24">
         <v>1304490</v>
       </c>
@@ -35222,7 +35225,7 @@
       </c>
       <c r="K236" s="24"/>
     </row>
-    <row r="237" spans="1:11" ht="30" customHeight="1">
+    <row r="237" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="24">
         <v>1304491</v>
       </c>
@@ -35255,7 +35258,7 @@
       </c>
       <c r="K237" s="24"/>
     </row>
-    <row r="238" spans="1:11" ht="30" customHeight="1">
+    <row r="238" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="24">
         <v>1304492</v>
       </c>
@@ -35288,7 +35291,7 @@
       </c>
       <c r="K238" s="24"/>
     </row>
-    <row r="239" spans="1:11" ht="30" customHeight="1">
+    <row r="239" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="24">
         <v>1401123</v>
       </c>
@@ -35321,7 +35324,7 @@
       </c>
       <c r="K239" s="24"/>
     </row>
-    <row r="240" spans="1:11" ht="30" customHeight="1">
+    <row r="240" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="24">
         <v>1401111</v>
       </c>
@@ -35354,7 +35357,7 @@
       </c>
       <c r="K240" s="24"/>
     </row>
-    <row r="241" spans="1:11" ht="30" customHeight="1">
+    <row r="241" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="24">
         <v>1401124</v>
       </c>
@@ -35387,7 +35390,7 @@
       </c>
       <c r="K241" s="24"/>
     </row>
-    <row r="242" spans="1:11" ht="30" customHeight="1">
+    <row r="242" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="24">
         <v>1401130</v>
       </c>
@@ -35422,7 +35425,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="30" customHeight="1">
+    <row r="243" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="24">
         <v>1401131</v>
       </c>
@@ -35455,7 +35458,7 @@
       </c>
       <c r="K243" s="24"/>
     </row>
-    <row r="244" spans="1:11" ht="30" customHeight="1">
+    <row r="244" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="24">
         <v>1401132</v>
       </c>
@@ -35490,7 +35493,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="30" customHeight="1">
+    <row r="245" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="24">
         <v>1401133</v>
       </c>
@@ -35523,7 +35526,7 @@
       </c>
       <c r="K245" s="24"/>
     </row>
-    <row r="246" spans="1:11" ht="30" customHeight="1">
+    <row r="246" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="24">
         <v>1401134</v>
       </c>
@@ -35556,7 +35559,7 @@
       </c>
       <c r="K246" s="24"/>
     </row>
-    <row r="247" spans="1:11" ht="30" customHeight="1">
+    <row r="247" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="24">
         <v>1401136</v>
       </c>
@@ -35589,7 +35592,7 @@
       </c>
       <c r="K247" s="24"/>
     </row>
-    <row r="248" spans="1:11" ht="30" customHeight="1">
+    <row r="248" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="24">
         <v>1401140</v>
       </c>
@@ -35624,7 +35627,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="30" customHeight="1">
+    <row r="249" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="24">
         <v>1401150</v>
       </c>
@@ -35657,7 +35660,7 @@
       </c>
       <c r="K249" s="24"/>
     </row>
-    <row r="250" spans="1:11" ht="30" customHeight="1">
+    <row r="250" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="24">
         <v>1401151</v>
       </c>
@@ -35690,7 +35693,7 @@
       </c>
       <c r="K250" s="24"/>
     </row>
-    <row r="251" spans="1:11" ht="30" customHeight="1">
+    <row r="251" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="24">
         <v>1401210</v>
       </c>
@@ -35723,7 +35726,7 @@
       </c>
       <c r="K251" s="24"/>
     </row>
-    <row r="252" spans="1:11" ht="30" customHeight="1">
+    <row r="252" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="24">
         <v>1401220</v>
       </c>
@@ -35756,7 +35759,7 @@
       </c>
       <c r="K252" s="24"/>
     </row>
-    <row r="253" spans="1:11" ht="30" customHeight="1">
+    <row r="253" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="24">
         <v>1501110</v>
       </c>
@@ -35789,7 +35792,7 @@
       </c>
       <c r="K253" s="24"/>
     </row>
-    <row r="254" spans="1:11" ht="30" customHeight="1">
+    <row r="254" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="24">
         <v>1501113</v>
       </c>
@@ -35824,7 +35827,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="30" customHeight="1">
+    <row r="255" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="24">
         <v>1501114</v>
       </c>
@@ -35857,7 +35860,7 @@
       </c>
       <c r="K255" s="24"/>
     </row>
-    <row r="256" spans="1:11" ht="30" customHeight="1">
+    <row r="256" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="24">
         <v>1501120</v>
       </c>
@@ -35890,7 +35893,7 @@
       </c>
       <c r="K256" s="24"/>
     </row>
-    <row r="257" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1">
+    <row r="257" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="24">
         <v>1501121</v>
       </c>
@@ -35922,7 +35925,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="258" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1">
+    <row r="258" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="24">
         <v>1501124</v>
       </c>
@@ -35954,7 +35957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="30" customHeight="1">
+    <row r="259" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="24">
         <v>1501125</v>
       </c>
@@ -35989,7 +35992,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="30" customHeight="1">
+    <row r="260" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="24">
         <v>1501126</v>
       </c>
@@ -36022,7 +36025,7 @@
       </c>
       <c r="K260" s="24"/>
     </row>
-    <row r="261" spans="1:11" ht="30" customHeight="1">
+    <row r="261" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="24">
         <v>1501127</v>
       </c>
@@ -36055,7 +36058,7 @@
       </c>
       <c r="K261" s="24"/>
     </row>
-    <row r="262" spans="1:11" ht="30" customHeight="1">
+    <row r="262" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="24">
         <v>1501128</v>
       </c>
@@ -36088,7 +36091,7 @@
       </c>
       <c r="K262" s="24"/>
     </row>
-    <row r="263" spans="1:11" ht="30" customHeight="1">
+    <row r="263" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="24">
         <v>1501130</v>
       </c>
@@ -36121,7 +36124,7 @@
       </c>
       <c r="K263" s="24"/>
     </row>
-    <row r="264" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1">
+    <row r="264" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="24">
         <v>1501131</v>
       </c>
@@ -36153,7 +36156,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="265" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1">
+    <row r="265" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="24">
         <v>1501153</v>
       </c>
@@ -36188,7 +36191,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="30" customHeight="1">
+    <row r="266" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="24">
         <v>1501154</v>
       </c>
@@ -36223,7 +36226,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="30" customHeight="1">
+    <row r="267" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="24">
         <v>1501161</v>
       </c>
@@ -36256,7 +36259,7 @@
       </c>
       <c r="K267" s="24"/>
     </row>
-    <row r="268" spans="1:11" ht="30" customHeight="1">
+    <row r="268" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="24">
         <v>1501210</v>
       </c>
@@ -36289,7 +36292,7 @@
       </c>
       <c r="K268" s="24"/>
     </row>
-    <row r="269" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1">
+    <row r="269" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="24">
         <v>1501212</v>
       </c>
@@ -36321,7 +36324,7 @@
         <v>1501110</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="30" customHeight="1">
+    <row r="270" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="24">
         <v>1302338</v>
       </c>
@@ -36354,7 +36357,7 @@
       </c>
       <c r="K270" s="24"/>
     </row>
-    <row r="271" spans="1:11" ht="30" customHeight="1">
+    <row r="271" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="24">
         <v>1302360</v>
       </c>
@@ -36387,7 +36390,7 @@
       </c>
       <c r="K271" s="24"/>
     </row>
-    <row r="272" spans="1:11" ht="30" customHeight="1">
+    <row r="272" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="24">
         <v>1302368</v>
       </c>
@@ -36420,7 +36423,7 @@
       </c>
       <c r="K272" s="24"/>
     </row>
-    <row r="273" spans="1:16" ht="30" customHeight="1">
+    <row r="273" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="24">
         <v>1302486</v>
       </c>
@@ -36453,7 +36456,7 @@
       </c>
       <c r="K273" s="24"/>
     </row>
-    <row r="274" spans="1:16" ht="30" customHeight="1">
+    <row r="274" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="24">
         <v>1302460</v>
       </c>
@@ -36486,7 +36489,7 @@
       </c>
       <c r="K274" s="24"/>
     </row>
-    <row r="275" spans="1:16" ht="30" customHeight="1">
+    <row r="275" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="24">
         <v>1302495</v>
       </c>
@@ -36519,7 +36522,7 @@
       </c>
       <c r="K275" s="24"/>
     </row>
-    <row r="276" spans="1:16" ht="30" customHeight="1">
+    <row r="276" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="24">
         <v>1302390</v>
       </c>
@@ -36546,7 +36549,7 @@
       <c r="J276" s="24"/>
       <c r="K276" s="24"/>
     </row>
-    <row r="277" spans="1:16" ht="30" customHeight="1">
+    <row r="277" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="24">
         <v>1302337</v>
       </c>
@@ -36579,7 +36582,7 @@
       </c>
       <c r="K277" s="24"/>
     </row>
-    <row r="278" spans="1:16" ht="30" customHeight="1">
+    <row r="278" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="24">
         <v>1301150</v>
       </c>
@@ -36612,7 +36615,7 @@
       </c>
       <c r="K278" s="24"/>
     </row>
-    <row r="279" spans="1:16" ht="30" customHeight="1">
+    <row r="279" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="24">
         <v>1301236</v>
       </c>
@@ -36645,7 +36648,7 @@
       </c>
       <c r="K279" s="24"/>
     </row>
-    <row r="280" spans="1:16" ht="30" customHeight="1">
+    <row r="280" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="24">
         <v>1301350</v>
       </c>
@@ -36678,7 +36681,7 @@
       </c>
       <c r="K280" s="24"/>
     </row>
-    <row r="281" spans="1:16" ht="30" customHeight="1">
+    <row r="281" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="24">
         <v>1301111</v>
       </c>
@@ -36711,7 +36714,7 @@
       </c>
       <c r="K281" s="24"/>
     </row>
-    <row r="282" spans="1:16" ht="30" customHeight="1">
+    <row r="282" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="24">
         <v>1301460</v>
       </c>
@@ -36744,7 +36747,7 @@
       </c>
       <c r="K282" s="24"/>
     </row>
-    <row r="283" spans="1:16" ht="30" customHeight="1">
+    <row r="283" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="24">
         <v>1301462</v>
       </c>
@@ -36777,7 +36780,7 @@
       </c>
       <c r="K283" s="24"/>
     </row>
-    <row r="284" spans="1:16" ht="30" customHeight="1">
+    <row r="284" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="24">
         <v>1301463</v>
       </c>
@@ -36810,7 +36813,7 @@
       </c>
       <c r="K284" s="24"/>
     </row>
-    <row r="285" spans="1:16" ht="30" customHeight="1">
+    <row r="285" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="24">
         <v>1301464</v>
       </c>
@@ -36843,7 +36846,7 @@
       </c>
       <c r="K285" s="24"/>
     </row>
-    <row r="286" spans="1:16" ht="30" customHeight="1">
+    <row r="286" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="24">
         <v>1301411</v>
       </c>
@@ -36874,7 +36877,7 @@
       <c r="J286" s="24"/>
       <c r="K286" s="24"/>
     </row>
-    <row r="287" spans="1:16" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="287" spans="1:16" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="85">
         <v>1301336</v>
       </c>
@@ -36910,7 +36913,7 @@
       <c r="O287" s="88"/>
       <c r="P287" s="88"/>
     </row>
-    <row r="288" spans="1:16" ht="30" customHeight="1">
+    <row r="288" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="98">
         <v>1211110</v>
       </c>
@@ -36933,7 +36936,7 @@
       <c r="J288" s="24"/>
       <c r="K288" s="24"/>
     </row>
-    <row r="289" spans="1:11" ht="30" customHeight="1">
+    <row r="289" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="24"/>
       <c r="B289" s="24"/>
       <c r="C289" s="24"/>
@@ -36943,7 +36946,7 @@
       <c r="J289" s="24"/>
       <c r="K289" s="24"/>
     </row>
-    <row r="290" spans="1:11" ht="30" customHeight="1">
+    <row r="290" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="24"/>
       <c r="B290" s="24"/>
       <c r="C290" s="24"/>
@@ -37109,6 +37112,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -37117,20 +37126,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFB5E916-6555-4BD6-AD6D-E20FCAC098C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFB5E916-6555-4BD6-AD6D-E20FCAC098C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef00d4a1-3a51-4989-9998-4ff6008509d4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74E34EE5-8F49-4E38-AD5D-B1C29EC2C370}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{005416B9-4A5E-4A4F-8CB6-9B381C6A9739}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{005416B9-4A5E-4A4F-8CB6-9B381C6A9739}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74E34EE5-8F49-4E38-AD5D-B1C29EC2C370}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>